--- a/pliki/dane_meteo.xlsx
+++ b/pliki/dane_meteo.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I731"/>
+  <dimension ref="A1:G731"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,16 +393,6 @@
           <t>precip</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>humidity</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>pressure</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -428,12 +418,6 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>78</v>
-      </c>
-      <c r="I2">
-        <v>1017.9</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -459,12 +443,6 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3">
-        <v>84</v>
-      </c>
-      <c r="I3">
-        <v>1013.1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -490,12 +468,6 @@
       <c r="G4">
         <v>4.8</v>
       </c>
-      <c r="H4">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="I4">
-        <v>1012.1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -521,12 +493,6 @@
       <c r="G5">
         <v>2.3</v>
       </c>
-      <c r="H5">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="I5">
-        <v>996.1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -552,12 +518,6 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>68.3</v>
-      </c>
-      <c r="I6">
-        <v>1021.2</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -583,12 +543,6 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="I7">
-        <v>1038.4</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -614,12 +568,6 @@
       <c r="G8">
         <v>2.1</v>
       </c>
-      <c r="H8">
-        <v>82.5</v>
-      </c>
-      <c r="I8">
-        <v>1033.2</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -645,12 +593,6 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9">
-        <v>78.5</v>
-      </c>
-      <c r="I9">
-        <v>1029.8</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -676,12 +618,6 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10">
-        <v>88.59999999999999</v>
-      </c>
-      <c r="I10">
-        <v>1027.8</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -707,12 +643,6 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11">
-        <v>75.3</v>
-      </c>
-      <c r="I11">
-        <v>1019.6</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -738,12 +668,6 @@
       <c r="G12">
         <v>6</v>
       </c>
-      <c r="H12">
-        <v>74.8</v>
-      </c>
-      <c r="I12">
-        <v>1010.7</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -769,12 +693,6 @@
       <c r="G13">
         <v>0.4</v>
       </c>
-      <c r="H13">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="I13">
-        <v>1001.7</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -800,12 +718,6 @@
       <c r="G14">
         <v>1.4</v>
       </c>
-      <c r="H14">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="I14">
-        <v>992.2</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -831,12 +743,6 @@
       <c r="G15">
         <v>0.6</v>
       </c>
-      <c r="H15">
-        <v>87.8</v>
-      </c>
-      <c r="I15">
-        <v>1002.2</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -862,12 +768,6 @@
       <c r="G16">
         <v>2.4</v>
       </c>
-      <c r="H16">
-        <v>91.8</v>
-      </c>
-      <c r="I16">
-        <v>1012</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -893,12 +793,6 @@
       <c r="G17">
         <v>0.4</v>
       </c>
-      <c r="H17">
-        <v>89</v>
-      </c>
-      <c r="I17">
-        <v>1023</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -924,12 +818,6 @@
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18">
-        <v>94.3</v>
-      </c>
-      <c r="I18">
-        <v>1035.4</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -955,12 +843,6 @@
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19">
-        <v>93.59999999999999</v>
-      </c>
-      <c r="I19">
-        <v>1041.7</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -986,12 +868,6 @@
       <c r="G20">
         <v>0.5</v>
       </c>
-      <c r="H20">
-        <v>93.5</v>
-      </c>
-      <c r="I20">
-        <v>1039.4</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1017,12 +893,6 @@
       <c r="G21">
         <v>0</v>
       </c>
-      <c r="H21">
-        <v>95.90000000000001</v>
-      </c>
-      <c r="I21">
-        <v>1034.4</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1048,12 +918,6 @@
       <c r="G22">
         <v>0</v>
       </c>
-      <c r="H22">
-        <v>96.3</v>
-      </c>
-      <c r="I22">
-        <v>1033</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1079,12 +943,6 @@
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="H23">
-        <v>90.8</v>
-      </c>
-      <c r="I23">
-        <v>1031.4</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1110,12 +968,6 @@
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24">
-        <v>83</v>
-      </c>
-      <c r="I24">
-        <v>1025.4</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1141,12 +993,6 @@
       <c r="G25">
         <v>0.9</v>
       </c>
-      <c r="H25">
-        <v>92.8</v>
-      </c>
-      <c r="I25">
-        <v>1027.2</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1172,12 +1018,6 @@
       <c r="G26">
         <v>0.2</v>
       </c>
-      <c r="H26">
-        <v>94</v>
-      </c>
-      <c r="I26">
-        <v>1031.7</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1203,12 +1043,6 @@
       <c r="G27">
         <v>0</v>
       </c>
-      <c r="H27">
-        <v>81.5</v>
-      </c>
-      <c r="I27">
-        <v>1033.8</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1234,12 +1068,6 @@
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="H28">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="I28">
-        <v>1027.7</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1265,12 +1093,6 @@
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="H29">
-        <v>70.3</v>
-      </c>
-      <c r="I29">
-        <v>1023.7</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1296,12 +1118,6 @@
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30">
-        <v>76.3</v>
-      </c>
-      <c r="I30">
-        <v>1023.8</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1327,12 +1143,6 @@
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="H31">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="I31">
-        <v>1019.8</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -1358,12 +1168,6 @@
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="H32">
-        <v>73.8</v>
-      </c>
-      <c r="I32">
-        <v>1018.4</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -1389,12 +1193,6 @@
       <c r="G33">
         <v>0</v>
       </c>
-      <c r="H33">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="I33">
-        <v>1023</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -1420,12 +1218,6 @@
       <c r="G34">
         <v>0</v>
       </c>
-      <c r="H34">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="I34">
-        <v>1017.8</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -1451,12 +1243,6 @@
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35">
-        <v>94.8</v>
-      </c>
-      <c r="I35">
-        <v>1012.1</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -1482,12 +1268,6 @@
       <c r="G36">
         <v>0.5</v>
       </c>
-      <c r="H36">
-        <v>93.5</v>
-      </c>
-      <c r="I36">
-        <v>1008.9</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -1513,12 +1293,6 @@
       <c r="G37">
         <v>0</v>
       </c>
-      <c r="H37">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="I37">
-        <v>1007.9</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -1544,12 +1318,6 @@
       <c r="G38">
         <v>0</v>
       </c>
-      <c r="H38">
-        <v>81.3</v>
-      </c>
-      <c r="I38">
-        <v>1019.3</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -1575,12 +1343,6 @@
       <c r="G39">
         <v>0</v>
       </c>
-      <c r="H39">
-        <v>79.90000000000001</v>
-      </c>
-      <c r="I39">
-        <v>1025.2</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -1606,12 +1368,6 @@
       <c r="G40">
         <v>0</v>
       </c>
-      <c r="H40">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="I40">
-        <v>1031.2</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -1637,12 +1393,6 @@
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="H41">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="I41">
-        <v>1035.8</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -1668,12 +1418,6 @@
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="H42">
-        <v>70.3</v>
-      </c>
-      <c r="I42">
-        <v>1033</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -1699,12 +1443,6 @@
       <c r="G43">
         <v>0</v>
       </c>
-      <c r="H43">
-        <v>57.9</v>
-      </c>
-      <c r="I43">
-        <v>1032</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -1730,12 +1468,6 @@
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="H44">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="I44">
-        <v>1036.8</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -1761,12 +1493,6 @@
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="H45">
-        <v>82.8</v>
-      </c>
-      <c r="I45">
-        <v>1039.8</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -1792,12 +1518,6 @@
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="H46">
-        <v>80.5</v>
-      </c>
-      <c r="I46">
-        <v>1037.6</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -1823,12 +1543,6 @@
       <c r="G47">
         <v>0</v>
       </c>
-      <c r="H47">
-        <v>69</v>
-      </c>
-      <c r="I47">
-        <v>1036.1</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -1854,12 +1568,6 @@
       <c r="G48">
         <v>3.5</v>
       </c>
-      <c r="H48">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="I48">
-        <v>1028.8</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -1885,12 +1593,6 @@
       <c r="G49">
         <v>0.5</v>
       </c>
-      <c r="H49">
-        <v>91.59999999999999</v>
-      </c>
-      <c r="I49">
-        <v>1021</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -1916,12 +1618,6 @@
       <c r="G50">
         <v>0.6</v>
       </c>
-      <c r="H50">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="I50">
-        <v>1024</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -1947,12 +1643,6 @@
       <c r="G51">
         <v>0.2</v>
       </c>
-      <c r="H51">
-        <v>82.90000000000001</v>
-      </c>
-      <c r="I51">
-        <v>1021.1</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -1978,12 +1668,6 @@
       <c r="G52">
         <v>4.9</v>
       </c>
-      <c r="H52">
-        <v>88.8</v>
-      </c>
-      <c r="I52">
-        <v>1012.1</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -2009,12 +1693,6 @@
       <c r="G53">
         <v>0.2</v>
       </c>
-      <c r="H53">
-        <v>80.3</v>
-      </c>
-      <c r="I53">
-        <v>1005</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -2040,12 +1718,6 @@
       <c r="G54">
         <v>11.3</v>
       </c>
-      <c r="H54">
-        <v>87.5</v>
-      </c>
-      <c r="I54">
-        <v>1001</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -2071,12 +1743,6 @@
       <c r="G55">
         <v>8.300000000000001</v>
       </c>
-      <c r="H55">
-        <v>83.40000000000001</v>
-      </c>
-      <c r="I55">
-        <v>995.6</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -2102,12 +1768,6 @@
       <c r="G56">
         <v>2.8</v>
       </c>
-      <c r="H56">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="I56">
-        <v>998.4</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -2133,12 +1793,6 @@
       <c r="G57">
         <v>0.2</v>
       </c>
-      <c r="H57">
-        <v>76.8</v>
-      </c>
-      <c r="I57">
-        <v>1017.7</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -2164,12 +1818,6 @@
       <c r="G58">
         <v>0.3</v>
       </c>
-      <c r="H58">
-        <v>70.90000000000001</v>
-      </c>
-      <c r="I58">
-        <v>1011.4</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -2195,12 +1843,6 @@
       <c r="G59">
         <v>0</v>
       </c>
-      <c r="H59">
-        <v>61</v>
-      </c>
-      <c r="I59">
-        <v>1007.5</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -2226,12 +1868,6 @@
       <c r="G60">
         <v>0.4</v>
       </c>
-      <c r="H60">
-        <v>70.8</v>
-      </c>
-      <c r="I60">
-        <v>996.6</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -2257,12 +1893,6 @@
       <c r="G61">
         <v>0.9</v>
       </c>
-      <c r="H61">
-        <v>74.5</v>
-      </c>
-      <c r="I61">
-        <v>1000.1</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -2288,12 +1918,6 @@
       <c r="G62">
         <v>3</v>
       </c>
-      <c r="H62">
-        <v>84.09999999999999</v>
-      </c>
-      <c r="I62">
-        <v>1003.5</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -2319,12 +1943,6 @@
       <c r="G63">
         <v>0</v>
       </c>
-      <c r="H63">
-        <v>70.3</v>
-      </c>
-      <c r="I63">
-        <v>1012.5</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -2350,12 +1968,6 @@
       <c r="G64">
         <v>0</v>
       </c>
-      <c r="H64">
-        <v>65.59999999999999</v>
-      </c>
-      <c r="I64">
-        <v>1001.9</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -2381,12 +1993,6 @@
       <c r="G65">
         <v>0</v>
       </c>
-      <c r="H65">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="I65">
-        <v>1001.6</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -2412,12 +2018,6 @@
       <c r="G66">
         <v>8.800000000000001</v>
       </c>
-      <c r="H66">
-        <v>80.8</v>
-      </c>
-      <c r="I66">
-        <v>1001.9</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -2443,12 +2043,6 @@
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="H67">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="I67">
-        <v>1010</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -2474,12 +2068,6 @@
       <c r="G68">
         <v>0.4</v>
       </c>
-      <c r="H68">
-        <v>74.8</v>
-      </c>
-      <c r="I68">
-        <v>1021.9</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -2505,12 +2093,6 @@
       <c r="G69">
         <v>0.1</v>
       </c>
-      <c r="H69">
-        <v>84.3</v>
-      </c>
-      <c r="I69">
-        <v>1016.2</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -2536,12 +2118,6 @@
       <c r="G70">
         <v>0</v>
       </c>
-      <c r="H70">
-        <v>85.09999999999999</v>
-      </c>
-      <c r="I70">
-        <v>1019.6</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -2567,12 +2143,6 @@
       <c r="G71">
         <v>0</v>
       </c>
-      <c r="H71">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="I71">
-        <v>1025.2</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -2598,12 +2168,6 @@
       <c r="G72">
         <v>0</v>
       </c>
-      <c r="H72">
-        <v>78.3</v>
-      </c>
-      <c r="I72">
-        <v>1025</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -2629,12 +2193,6 @@
       <c r="G73">
         <v>0</v>
       </c>
-      <c r="H73">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="I73">
-        <v>1027.3</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -2660,12 +2218,6 @@
       <c r="G74">
         <v>0</v>
       </c>
-      <c r="H74">
-        <v>67.8</v>
-      </c>
-      <c r="I74">
-        <v>1028</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -2691,12 +2243,6 @@
       <c r="G75">
         <v>0</v>
       </c>
-      <c r="H75">
-        <v>59.3</v>
-      </c>
-      <c r="I75">
-        <v>1024.4</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -2722,12 +2268,6 @@
       <c r="G76">
         <v>0</v>
       </c>
-      <c r="H76">
-        <v>63.8</v>
-      </c>
-      <c r="I76">
-        <v>1022.2</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -2753,12 +2293,6 @@
       <c r="G77">
         <v>0.1</v>
       </c>
-      <c r="H77">
-        <v>72.5</v>
-      </c>
-      <c r="I77">
-        <v>1010.8</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -2784,12 +2318,6 @@
       <c r="G78">
         <v>7.4</v>
       </c>
-      <c r="H78">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="I78">
-        <v>999</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -2815,12 +2343,6 @@
       <c r="G79">
         <v>8.5</v>
       </c>
-      <c r="H79">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="I79">
-        <v>1006.5</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -2846,12 +2368,6 @@
       <c r="G80">
         <v>0.1</v>
       </c>
-      <c r="H80">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="I80">
-        <v>1004.9</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -2877,12 +2393,6 @@
       <c r="G81">
         <v>7.4</v>
       </c>
-      <c r="H81">
-        <v>79</v>
-      </c>
-      <c r="I81">
-        <v>1007.3</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -2908,12 +2418,6 @@
       <c r="G82">
         <v>0</v>
       </c>
-      <c r="H82">
-        <v>61.1</v>
-      </c>
-      <c r="I82">
-        <v>1018.7</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -2939,12 +2443,6 @@
       <c r="G83">
         <v>0</v>
       </c>
-      <c r="H83">
-        <v>58.9</v>
-      </c>
-      <c r="I83">
-        <v>1021.4</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -2970,12 +2468,6 @@
       <c r="G84">
         <v>0</v>
       </c>
-      <c r="H84">
-        <v>60</v>
-      </c>
-      <c r="I84">
-        <v>1028.6</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -3001,12 +2493,6 @@
       <c r="G85">
         <v>0</v>
       </c>
-      <c r="H85">
-        <v>58.9</v>
-      </c>
-      <c r="I85">
-        <v>1027</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -3032,12 +2518,6 @@
       <c r="G86">
         <v>0</v>
       </c>
-      <c r="H86">
-        <v>57.3</v>
-      </c>
-      <c r="I86">
-        <v>1026.4</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -3063,12 +2543,6 @@
       <c r="G87">
         <v>0</v>
       </c>
-      <c r="H87">
-        <v>55</v>
-      </c>
-      <c r="I87">
-        <v>1025.1</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -3094,12 +2568,6 @@
       <c r="G88">
         <v>0</v>
       </c>
-      <c r="H88">
-        <v>49.5</v>
-      </c>
-      <c r="I88">
-        <v>1020.4</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -3125,12 +2593,6 @@
       <c r="G89">
         <v>0.8</v>
       </c>
-      <c r="H89">
-        <v>70.5</v>
-      </c>
-      <c r="I89">
-        <v>1019.3</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -3156,12 +2618,6 @@
       <c r="G90">
         <v>0</v>
       </c>
-      <c r="H90">
-        <v>83.8</v>
-      </c>
-      <c r="I90">
-        <v>1025.1</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -3187,12 +2643,6 @@
       <c r="G91">
         <v>0</v>
       </c>
-      <c r="H91">
-        <v>64.3</v>
-      </c>
-      <c r="I91">
-        <v>1019.6</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -3218,12 +2668,6 @@
       <c r="G92">
         <v>0</v>
       </c>
-      <c r="H92">
-        <v>54.5</v>
-      </c>
-      <c r="I92">
-        <v>1012.9</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -3249,12 +2693,6 @@
       <c r="G93">
         <v>0</v>
       </c>
-      <c r="H93">
-        <v>67.8</v>
-      </c>
-      <c r="I93">
-        <v>1015.4</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -3280,12 +2718,6 @@
       <c r="G94">
         <v>0</v>
       </c>
-      <c r="H94">
-        <v>81</v>
-      </c>
-      <c r="I94">
-        <v>1024.7</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -3311,12 +2743,6 @@
       <c r="G95">
         <v>0</v>
       </c>
-      <c r="H95">
-        <v>74.5</v>
-      </c>
-      <c r="I95">
-        <v>1024.3</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -3342,12 +2768,6 @@
       <c r="G96">
         <v>1.1</v>
       </c>
-      <c r="H96">
-        <v>84.40000000000001</v>
-      </c>
-      <c r="I96">
-        <v>1018.5</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -3373,12 +2793,6 @@
       <c r="G97">
         <v>4.5</v>
       </c>
-      <c r="H97">
-        <v>63.5</v>
-      </c>
-      <c r="I97">
-        <v>1016.4</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -3404,12 +2818,6 @@
       <c r="G98">
         <v>0.5</v>
       </c>
-      <c r="H98">
-        <v>90.5</v>
-      </c>
-      <c r="I98">
-        <v>1015</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -3435,12 +2843,6 @@
       <c r="G99">
         <v>0</v>
       </c>
-      <c r="H99">
-        <v>85.8</v>
-      </c>
-      <c r="I99">
-        <v>1022</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -3466,12 +2868,6 @@
       <c r="G100">
         <v>0</v>
       </c>
-      <c r="H100">
-        <v>74.3</v>
-      </c>
-      <c r="I100">
-        <v>1025</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -3497,12 +2893,6 @@
       <c r="G101">
         <v>0</v>
       </c>
-      <c r="H101">
-        <v>65</v>
-      </c>
-      <c r="I101">
-        <v>1015.2</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -3528,12 +2918,6 @@
       <c r="G102">
         <v>1.4</v>
       </c>
-      <c r="H102">
-        <v>59.8</v>
-      </c>
-      <c r="I102">
-        <v>1017.9</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -3559,12 +2943,6 @@
       <c r="G103">
         <v>8</v>
       </c>
-      <c r="H103">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="I103">
-        <v>1011.9</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -3590,12 +2968,6 @@
       <c r="G104">
         <v>2.6</v>
       </c>
-      <c r="H104">
-        <v>80.5</v>
-      </c>
-      <c r="I104">
-        <v>1007.3</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -3621,12 +2993,6 @@
       <c r="G105">
         <v>0.6</v>
       </c>
-      <c r="H105">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="I105">
-        <v>1011.8</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -3652,12 +3018,6 @@
       <c r="G106">
         <v>1.7</v>
       </c>
-      <c r="H106">
-        <v>77.8</v>
-      </c>
-      <c r="I106">
-        <v>1009.5</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -3683,12 +3043,6 @@
       <c r="G107">
         <v>0</v>
       </c>
-      <c r="H107">
-        <v>69.5</v>
-      </c>
-      <c r="I107">
-        <v>1012.5</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -3714,12 +3068,6 @@
       <c r="G108">
         <v>2.3</v>
       </c>
-      <c r="H108">
-        <v>83.3</v>
-      </c>
-      <c r="I108">
-        <v>1015.2</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -3745,12 +3093,6 @@
       <c r="G109">
         <v>0</v>
       </c>
-      <c r="H109">
-        <v>63.3</v>
-      </c>
-      <c r="I109">
-        <v>1021.6</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -3776,12 +3118,6 @@
       <c r="G110">
         <v>0</v>
       </c>
-      <c r="H110">
-        <v>56.1</v>
-      </c>
-      <c r="I110">
-        <v>1030.6</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -3807,12 +3143,6 @@
       <c r="G111">
         <v>0</v>
       </c>
-      <c r="H111">
-        <v>55.4</v>
-      </c>
-      <c r="I111">
-        <v>1032.9</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -3838,12 +3168,6 @@
       <c r="G112">
         <v>0.8</v>
       </c>
-      <c r="H112">
-        <v>62</v>
-      </c>
-      <c r="I112">
-        <v>1022.5</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -3869,12 +3193,6 @@
       <c r="G113">
         <v>5.9</v>
       </c>
-      <c r="H113">
-        <v>70</v>
-      </c>
-      <c r="I113">
-        <v>1014.1</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -3900,12 +3218,6 @@
       <c r="G114">
         <v>3.7</v>
       </c>
-      <c r="H114">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="I114">
-        <v>1016.3</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -3931,12 +3243,6 @@
       <c r="G115">
         <v>0</v>
       </c>
-      <c r="H115">
-        <v>63</v>
-      </c>
-      <c r="I115">
-        <v>1014.9</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -3962,12 +3268,6 @@
       <c r="G116">
         <v>0</v>
       </c>
-      <c r="H116">
-        <v>63.9</v>
-      </c>
-      <c r="I116">
-        <v>1004.7</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -3993,12 +3293,6 @@
       <c r="G117">
         <v>0</v>
       </c>
-      <c r="H117">
-        <v>62.1</v>
-      </c>
-      <c r="I117">
-        <v>1012</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -4024,12 +3318,6 @@
       <c r="G118">
         <v>0</v>
       </c>
-      <c r="H118">
-        <v>70.8</v>
-      </c>
-      <c r="I118">
-        <v>1015</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -4055,12 +3343,6 @@
       <c r="G119">
         <v>0.8</v>
       </c>
-      <c r="H119">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="I119">
-        <v>1013.5</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -4086,12 +3368,6 @@
       <c r="G120">
         <v>0</v>
       </c>
-      <c r="H120">
-        <v>70.90000000000001</v>
-      </c>
-      <c r="I120">
-        <v>1015.8</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -4117,12 +3393,6 @@
       <c r="G121">
         <v>0</v>
       </c>
-      <c r="H121">
-        <v>70.90000000000001</v>
-      </c>
-      <c r="I121">
-        <v>1022.8</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -4148,12 +3418,6 @@
       <c r="G122">
         <v>0</v>
       </c>
-      <c r="H122">
-        <v>62.1</v>
-      </c>
-      <c r="I122">
-        <v>1019.9</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123">
@@ -4179,12 +3443,6 @@
       <c r="G123">
         <v>0.4</v>
       </c>
-      <c r="H123">
-        <v>65.40000000000001</v>
-      </c>
-      <c r="I123">
-        <v>1020.7</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124">
@@ -4210,12 +3468,6 @@
       <c r="G124">
         <v>2.7</v>
       </c>
-      <c r="H124">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="I124">
-        <v>1023.3</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125">
@@ -4241,12 +3493,6 @@
       <c r="G125">
         <v>4.5</v>
       </c>
-      <c r="H125">
-        <v>89.8</v>
-      </c>
-      <c r="I125">
-        <v>1017.6</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126">
@@ -4272,12 +3518,6 @@
       <c r="G126">
         <v>0</v>
       </c>
-      <c r="H126">
-        <v>84.8</v>
-      </c>
-      <c r="I126">
-        <v>1018.9</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127">
@@ -4303,12 +3543,6 @@
       <c r="G127">
         <v>3.3</v>
       </c>
-      <c r="H127">
-        <v>94.09999999999999</v>
-      </c>
-      <c r="I127">
-        <v>1015.5</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128">
@@ -4334,12 +3568,6 @@
       <c r="G128">
         <v>0.1</v>
       </c>
-      <c r="H128">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="I128">
-        <v>1010.8</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129">
@@ -4365,12 +3593,6 @@
       <c r="G129">
         <v>1.5</v>
       </c>
-      <c r="H129">
-        <v>84</v>
-      </c>
-      <c r="I129">
-        <v>1013.6</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130">
@@ -4396,12 +3618,6 @@
       <c r="G130">
         <v>0.2</v>
       </c>
-      <c r="H130">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="I130">
-        <v>1017.7</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131">
@@ -4427,12 +3643,6 @@
       <c r="G131">
         <v>0.4</v>
       </c>
-      <c r="H131">
-        <v>79</v>
-      </c>
-      <c r="I131">
-        <v>1010.6</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132">
@@ -4458,12 +3668,6 @@
       <c r="G132">
         <v>0</v>
       </c>
-      <c r="H132">
-        <v>71.40000000000001</v>
-      </c>
-      <c r="I132">
-        <v>1007.7</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133">
@@ -4489,12 +3693,6 @@
       <c r="G133">
         <v>0</v>
       </c>
-      <c r="H133">
-        <v>62.3</v>
-      </c>
-      <c r="I133">
-        <v>1006.7</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134">
@@ -4520,12 +3718,6 @@
       <c r="G134">
         <v>0</v>
       </c>
-      <c r="H134">
-        <v>61.1</v>
-      </c>
-      <c r="I134">
-        <v>1012.2</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135">
@@ -4551,12 +3743,6 @@
       <c r="G135">
         <v>0</v>
       </c>
-      <c r="H135">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="I135">
-        <v>1019.6</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136">
@@ -4582,12 +3768,6 @@
       <c r="G136">
         <v>0.4</v>
       </c>
-      <c r="H136">
-        <v>72.8</v>
-      </c>
-      <c r="I136">
-        <v>1026.2</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137">
@@ -4613,12 +3793,6 @@
       <c r="G137">
         <v>0</v>
       </c>
-      <c r="H137">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="I137">
-        <v>1030</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138">
@@ -4644,12 +3818,6 @@
       <c r="G138">
         <v>0</v>
       </c>
-      <c r="H138">
-        <v>57.6</v>
-      </c>
-      <c r="I138">
-        <v>1025.7</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139">
@@ -4675,12 +3843,6 @@
       <c r="G139">
         <v>0</v>
       </c>
-      <c r="H139">
-        <v>46.3</v>
-      </c>
-      <c r="I139">
-        <v>1016.8</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140">
@@ -4706,12 +3868,6 @@
       <c r="G140">
         <v>0</v>
       </c>
-      <c r="H140">
-        <v>47.6</v>
-      </c>
-      <c r="I140">
-        <v>1011.5</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141">
@@ -4737,12 +3893,6 @@
       <c r="G141">
         <v>0</v>
       </c>
-      <c r="H141">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="I141">
-        <v>1016.6</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142">
@@ -4768,12 +3918,6 @@
       <c r="G142">
         <v>0</v>
       </c>
-      <c r="H142">
-        <v>55.3</v>
-      </c>
-      <c r="I142">
-        <v>1023.3</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143">
@@ -4799,12 +3943,6 @@
       <c r="G143">
         <v>0</v>
       </c>
-      <c r="H143">
-        <v>54.3</v>
-      </c>
-      <c r="I143">
-        <v>1021.3</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144">
@@ -4830,12 +3968,6 @@
       <c r="G144">
         <v>0</v>
       </c>
-      <c r="H144">
-        <v>46.9</v>
-      </c>
-      <c r="I144">
-        <v>1016.1</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145">
@@ -4861,12 +3993,6 @@
       <c r="G145">
         <v>5.6</v>
       </c>
-      <c r="H145">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="I145">
-        <v>1015.7</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146">
@@ -4892,12 +4018,6 @@
       <c r="G146">
         <v>0</v>
       </c>
-      <c r="H146">
-        <v>73.59999999999999</v>
-      </c>
-      <c r="I146">
-        <v>1019.5</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147">
@@ -4923,12 +4043,6 @@
       <c r="G147">
         <v>0</v>
       </c>
-      <c r="H147">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="I147">
-        <v>1019.5</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148">
@@ -4954,12 +4068,6 @@
       <c r="G148">
         <v>0</v>
       </c>
-      <c r="H148">
-        <v>52.9</v>
-      </c>
-      <c r="I148">
-        <v>1024</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149">
@@ -4985,12 +4093,6 @@
       <c r="G149">
         <v>0</v>
       </c>
-      <c r="H149">
-        <v>48.5</v>
-      </c>
-      <c r="I149">
-        <v>1020.9</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150">
@@ -5016,12 +4118,6 @@
       <c r="G150">
         <v>0</v>
       </c>
-      <c r="H150">
-        <v>48.8</v>
-      </c>
-      <c r="I150">
-        <v>1013.2</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151">
@@ -5047,12 +4143,6 @@
       <c r="G151">
         <v>13.7</v>
       </c>
-      <c r="H151">
-        <v>79.3</v>
-      </c>
-      <c r="I151">
-        <v>1012.2</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152">
@@ -5078,12 +4168,6 @@
       <c r="G152">
         <v>0.1</v>
       </c>
-      <c r="H152">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="I152">
-        <v>1015.4</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153">
@@ -5109,12 +4193,6 @@
       <c r="G153">
         <v>0</v>
       </c>
-      <c r="H153">
-        <v>61.5</v>
-      </c>
-      <c r="I153">
-        <v>1019.6</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154">
@@ -5140,12 +4218,6 @@
       <c r="G154">
         <v>0</v>
       </c>
-      <c r="H154">
-        <v>52.6</v>
-      </c>
-      <c r="I154">
-        <v>1018.3</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155">
@@ -5171,12 +4243,6 @@
       <c r="G155">
         <v>0.4</v>
       </c>
-      <c r="H155">
-        <v>50.4</v>
-      </c>
-      <c r="I155">
-        <v>1017.5</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156">
@@ -5202,12 +4268,6 @@
       <c r="G156">
         <v>5.8</v>
       </c>
-      <c r="H156">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="I156">
-        <v>1009.3</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157">
@@ -5233,12 +4293,6 @@
       <c r="G157">
         <v>0</v>
       </c>
-      <c r="H157">
-        <v>66.8</v>
-      </c>
-      <c r="I157">
-        <v>1015.1</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158">
@@ -5264,12 +4318,6 @@
       <c r="G158">
         <v>34.9</v>
       </c>
-      <c r="H158">
-        <v>70.09999999999999</v>
-      </c>
-      <c r="I158">
-        <v>1007.3</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159">
@@ -5295,12 +4343,6 @@
       <c r="G159">
         <v>4</v>
       </c>
-      <c r="H159">
-        <v>69.3</v>
-      </c>
-      <c r="I159">
-        <v>1011.4</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160">
@@ -5326,12 +4368,6 @@
       <c r="G160">
         <v>0</v>
       </c>
-      <c r="H160">
-        <v>55.6</v>
-      </c>
-      <c r="I160">
-        <v>1018.5</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161">
@@ -5357,12 +4393,6 @@
       <c r="G161">
         <v>0.5</v>
       </c>
-      <c r="H161">
-        <v>49.4</v>
-      </c>
-      <c r="I161">
-        <v>1015.5</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162">
@@ -5388,12 +4418,6 @@
       <c r="G162">
         <v>0</v>
       </c>
-      <c r="H162">
-        <v>64.8</v>
-      </c>
-      <c r="I162">
-        <v>1018.3</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163">
@@ -5419,12 +4443,6 @@
       <c r="G163">
         <v>3</v>
       </c>
-      <c r="H163">
-        <v>56.1</v>
-      </c>
-      <c r="I163">
-        <v>1019.1</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164">
@@ -5450,12 +4468,6 @@
       <c r="G164">
         <v>1.4</v>
       </c>
-      <c r="H164">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="I164">
-        <v>1010</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165">
@@ -5481,12 +4493,6 @@
       <c r="G165">
         <v>0</v>
       </c>
-      <c r="H165">
-        <v>62.5</v>
-      </c>
-      <c r="I165">
-        <v>1013.3</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166">
@@ -5512,12 +4518,6 @@
       <c r="G166">
         <v>0</v>
       </c>
-      <c r="H166">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="I166">
-        <v>1017.6</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167">
@@ -5543,12 +4543,6 @@
       <c r="G167">
         <v>0.6</v>
       </c>
-      <c r="H167">
-        <v>62.6</v>
-      </c>
-      <c r="I167">
-        <v>1017.7</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168">
@@ -5574,12 +4568,6 @@
       <c r="G168">
         <v>3.5</v>
       </c>
-      <c r="H168">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="I168">
-        <v>1012</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169">
@@ -5605,12 +4593,6 @@
       <c r="G169">
         <v>1.5</v>
       </c>
-      <c r="H169">
-        <v>87.8</v>
-      </c>
-      <c r="I169">
-        <v>1017.7</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170">
@@ -5636,12 +4618,6 @@
       <c r="G170">
         <v>0</v>
       </c>
-      <c r="H170">
-        <v>65.59999999999999</v>
-      </c>
-      <c r="I170">
-        <v>1023.1</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171">
@@ -5667,12 +4643,6 @@
       <c r="G171">
         <v>0</v>
       </c>
-      <c r="H171">
-        <v>66</v>
-      </c>
-      <c r="I171">
-        <v>1021.5</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172">
@@ -5698,12 +4668,6 @@
       <c r="G172">
         <v>0</v>
       </c>
-      <c r="H172">
-        <v>60.4</v>
-      </c>
-      <c r="I172">
-        <v>1014.8</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173">
@@ -5729,12 +4693,6 @@
       <c r="G173">
         <v>0</v>
       </c>
-      <c r="H173">
-        <v>58</v>
-      </c>
-      <c r="I173">
-        <v>1016.8</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174">
@@ -5760,12 +4718,6 @@
       <c r="G174">
         <v>10</v>
       </c>
-      <c r="H174">
-        <v>54.1</v>
-      </c>
-      <c r="I174">
-        <v>1012.6</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175">
@@ -5791,12 +4743,6 @@
       <c r="G175">
         <v>0.6</v>
       </c>
-      <c r="H175">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="I175">
-        <v>1009.2</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176">
@@ -5822,12 +4768,6 @@
       <c r="G176">
         <v>0</v>
       </c>
-      <c r="H176">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="I176">
-        <v>1012.2</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177">
@@ -5853,12 +4793,6 @@
       <c r="G177">
         <v>3.4</v>
       </c>
-      <c r="H177">
-        <v>76.5</v>
-      </c>
-      <c r="I177">
-        <v>1010</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178">
@@ -5884,12 +4818,6 @@
       <c r="G178">
         <v>1.2</v>
       </c>
-      <c r="H178">
-        <v>76.40000000000001</v>
-      </c>
-      <c r="I178">
-        <v>1010.8</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179">
@@ -5915,12 +4843,6 @@
       <c r="G179">
         <v>0</v>
       </c>
-      <c r="H179">
-        <v>61.5</v>
-      </c>
-      <c r="I179">
-        <v>1012.4</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180">
@@ -5946,12 +4868,6 @@
       <c r="G180">
         <v>0.4</v>
       </c>
-      <c r="H180">
-        <v>71.5</v>
-      </c>
-      <c r="I180">
-        <v>1003</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181">
@@ -5977,12 +4893,6 @@
       <c r="G181">
         <v>14.8</v>
       </c>
-      <c r="H181">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="I181">
-        <v>992.1</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182">
@@ -6008,12 +4918,6 @@
       <c r="G182">
         <v>1</v>
       </c>
-      <c r="H182">
-        <v>82.09999999999999</v>
-      </c>
-      <c r="I182">
-        <v>999.1</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183">
@@ -6039,12 +4943,6 @@
       <c r="G183">
         <v>8.300000000000001</v>
       </c>
-      <c r="H183">
-        <v>80.3</v>
-      </c>
-      <c r="I183">
-        <v>1005.1</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184">
@@ -6070,12 +4968,6 @@
       <c r="G184">
         <v>0</v>
       </c>
-      <c r="H184">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="I184">
-        <v>1011.4</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185">
@@ -6101,12 +4993,6 @@
       <c r="G185">
         <v>0.8</v>
       </c>
-      <c r="H185">
-        <v>61.6</v>
-      </c>
-      <c r="I185">
-        <v>1018.4</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186">
@@ -6132,12 +5018,6 @@
       <c r="G186">
         <v>0.6</v>
       </c>
-      <c r="H186">
-        <v>65.59999999999999</v>
-      </c>
-      <c r="I186">
-        <v>1017.3</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187">
@@ -6163,12 +5043,6 @@
       <c r="G187">
         <v>0.2</v>
       </c>
-      <c r="H187">
-        <v>73.8</v>
-      </c>
-      <c r="I187">
-        <v>1019.1</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188">
@@ -6194,12 +5068,6 @@
       <c r="G188">
         <v>0</v>
       </c>
-      <c r="H188">
-        <v>60</v>
-      </c>
-      <c r="I188">
-        <v>1020.4</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189">
@@ -6225,12 +5093,6 @@
       <c r="G189">
         <v>10.5</v>
       </c>
-      <c r="H189">
-        <v>72.8</v>
-      </c>
-      <c r="I189">
-        <v>1016</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190">
@@ -6256,12 +5118,6 @@
       <c r="G190">
         <v>4</v>
       </c>
-      <c r="H190">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="I190">
-        <v>1014</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191">
@@ -6287,12 +5143,6 @@
       <c r="G191">
         <v>0</v>
       </c>
-      <c r="H191">
-        <v>71</v>
-      </c>
-      <c r="I191">
-        <v>1014.6</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192">
@@ -6318,12 +5168,6 @@
       <c r="G192">
         <v>1.2</v>
       </c>
-      <c r="H192">
-        <v>70.3</v>
-      </c>
-      <c r="I192">
-        <v>1008.7</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193">
@@ -6349,12 +5193,6 @@
       <c r="G193">
         <v>0.7</v>
       </c>
-      <c r="H193">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="I193">
-        <v>1008.9</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194">
@@ -6380,12 +5218,6 @@
       <c r="G194">
         <v>15.7</v>
       </c>
-      <c r="H194">
-        <v>77.5</v>
-      </c>
-      <c r="I194">
-        <v>1008.9</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195">
@@ -6411,12 +5243,6 @@
       <c r="G195">
         <v>0</v>
       </c>
-      <c r="H195">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="I195">
-        <v>1014.5</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196">
@@ -6442,12 +5268,6 @@
       <c r="G196">
         <v>0</v>
       </c>
-      <c r="H196">
-        <v>63.1</v>
-      </c>
-      <c r="I196">
-        <v>1016.6</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197">
@@ -6473,12 +5293,6 @@
       <c r="G197">
         <v>0</v>
       </c>
-      <c r="H197">
-        <v>61.1</v>
-      </c>
-      <c r="I197">
-        <v>1018</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198">
@@ -6504,12 +5318,6 @@
       <c r="G198">
         <v>5.7</v>
       </c>
-      <c r="H198">
-        <v>63</v>
-      </c>
-      <c r="I198">
-        <v>1021.7</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199">
@@ -6535,12 +5343,6 @@
       <c r="G199">
         <v>0</v>
       </c>
-      <c r="H199">
-        <v>68</v>
-      </c>
-      <c r="I199">
-        <v>1019.6</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200">
@@ -6566,12 +5368,6 @@
       <c r="G200">
         <v>0</v>
       </c>
-      <c r="H200">
-        <v>61</v>
-      </c>
-      <c r="I200">
-        <v>1021</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201">
@@ -6597,12 +5393,6 @@
       <c r="G201">
         <v>0</v>
       </c>
-      <c r="H201">
-        <v>61.9</v>
-      </c>
-      <c r="I201">
-        <v>1016.5</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202">
@@ -6628,12 +5418,6 @@
       <c r="G202">
         <v>5.3</v>
       </c>
-      <c r="H202">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="I202">
-        <v>1010.9</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203">
@@ -6659,12 +5443,6 @@
       <c r="G203">
         <v>0</v>
       </c>
-      <c r="H203">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="I203">
-        <v>1012.8</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204">
@@ -6690,12 +5468,6 @@
       <c r="G204">
         <v>15.2</v>
       </c>
-      <c r="H204">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="I204">
-        <v>1015.2</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205">
@@ -6721,12 +5493,6 @@
       <c r="G205">
         <v>5</v>
       </c>
-      <c r="H205">
-        <v>85.3</v>
-      </c>
-      <c r="I205">
-        <v>1012.9</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206">
@@ -6752,12 +5518,6 @@
       <c r="G206">
         <v>17.6</v>
       </c>
-      <c r="H206">
-        <v>70</v>
-      </c>
-      <c r="I206">
-        <v>1009.4</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207">
@@ -6783,12 +5543,6 @@
       <c r="G207">
         <v>19.9</v>
       </c>
-      <c r="H207">
-        <v>92.5</v>
-      </c>
-      <c r="I207">
-        <v>1000.8</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208">
@@ -6814,12 +5568,6 @@
       <c r="G208">
         <v>6.3</v>
       </c>
-      <c r="H208">
-        <v>85.3</v>
-      </c>
-      <c r="I208">
-        <v>1000.2</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209">
@@ -6845,12 +5593,6 @@
       <c r="G209">
         <v>7.4</v>
       </c>
-      <c r="H209">
-        <v>91.8</v>
-      </c>
-      <c r="I209">
-        <v>1005.5</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210">
@@ -6876,12 +5618,6 @@
       <c r="G210">
         <v>2.7</v>
       </c>
-      <c r="H210">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="I210">
-        <v>1009.4</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211">
@@ -6907,12 +5643,6 @@
       <c r="G211">
         <v>0</v>
       </c>
-      <c r="H211">
-        <v>63.1</v>
-      </c>
-      <c r="I211">
-        <v>1014.8</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212">
@@ -6938,12 +5668,6 @@
       <c r="G212">
         <v>0</v>
       </c>
-      <c r="H212">
-        <v>57.3</v>
-      </c>
-      <c r="I212">
-        <v>1011.7</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213">
@@ -6969,12 +5693,6 @@
       <c r="G213">
         <v>0</v>
       </c>
-      <c r="H213">
-        <v>56</v>
-      </c>
-      <c r="I213">
-        <v>1014.5</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214">
@@ -7000,12 +5718,6 @@
       <c r="G214">
         <v>27.4</v>
       </c>
-      <c r="H214">
-        <v>60.6</v>
-      </c>
-      <c r="I214">
-        <v>1015.2</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215">
@@ -7031,12 +5743,6 @@
       <c r="G215">
         <v>7.2</v>
       </c>
-      <c r="H215">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="I215">
-        <v>1016.8</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216">
@@ -7062,12 +5768,6 @@
       <c r="G216">
         <v>0</v>
       </c>
-      <c r="H216">
-        <v>70.90000000000001</v>
-      </c>
-      <c r="I216">
-        <v>1012.7</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217">
@@ -7093,12 +5793,6 @@
       <c r="G217">
         <v>0</v>
       </c>
-      <c r="H217">
-        <v>65.5</v>
-      </c>
-      <c r="I217">
-        <v>1010.6</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218">
@@ -7124,12 +5818,6 @@
       <c r="G218">
         <v>1.9</v>
       </c>
-      <c r="H218">
-        <v>60.8</v>
-      </c>
-      <c r="I218">
-        <v>1013.3</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219">
@@ -7155,12 +5843,6 @@
       <c r="G219">
         <v>0</v>
       </c>
-      <c r="H219">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="I219">
-        <v>1019.3</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220">
@@ -7186,12 +5868,6 @@
       <c r="G220">
         <v>0</v>
       </c>
-      <c r="H220">
-        <v>58.6</v>
-      </c>
-      <c r="I220">
-        <v>1022.6</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221">
@@ -7217,12 +5893,6 @@
       <c r="G221">
         <v>0</v>
       </c>
-      <c r="H221">
-        <v>51.9</v>
-      </c>
-      <c r="I221">
-        <v>1017.9</v>
-      </c>
     </row>
     <row r="222">
       <c r="A222">
@@ -7248,12 +5918,6 @@
       <c r="G222">
         <v>16.6</v>
       </c>
-      <c r="H222">
-        <v>69.3</v>
-      </c>
-      <c r="I222">
-        <v>1016.3</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223">
@@ -7279,12 +5943,6 @@
       <c r="G223">
         <v>2.7</v>
       </c>
-      <c r="H223">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="I223">
-        <v>1016.2</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224">
@@ -7310,12 +5968,6 @@
       <c r="G224">
         <v>20.3</v>
       </c>
-      <c r="H224">
-        <v>82.8</v>
-      </c>
-      <c r="I224">
-        <v>1012.9</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225">
@@ -7341,12 +5993,6 @@
       <c r="G225">
         <v>0</v>
       </c>
-      <c r="H225">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="I225">
-        <v>1013.7</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226">
@@ -7372,12 +6018,6 @@
       <c r="G226">
         <v>0</v>
       </c>
-      <c r="H226">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="I226">
-        <v>1018.1</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227">
@@ -7403,12 +6043,6 @@
       <c r="G227">
         <v>0</v>
       </c>
-      <c r="H227">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="I227">
-        <v>1024.3</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228">
@@ -7434,12 +6068,6 @@
       <c r="G228">
         <v>0</v>
       </c>
-      <c r="H228">
-        <v>57.8</v>
-      </c>
-      <c r="I228">
-        <v>1021.9</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229">
@@ -7465,12 +6093,6 @@
       <c r="G229">
         <v>4</v>
       </c>
-      <c r="H229">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="I229">
-        <v>1019.5</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230">
@@ -7496,12 +6118,6 @@
       <c r="G230">
         <v>0.1</v>
       </c>
-      <c r="H230">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="I230">
-        <v>1020.6</v>
-      </c>
     </row>
     <row r="231">
       <c r="A231">
@@ -7527,12 +6143,6 @@
       <c r="G231">
         <v>3</v>
       </c>
-      <c r="H231">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="I231">
-        <v>1014</v>
-      </c>
     </row>
     <row r="232">
       <c r="A232">
@@ -7558,12 +6168,6 @@
       <c r="G232">
         <v>0</v>
       </c>
-      <c r="H232">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="I232">
-        <v>1015.4</v>
-      </c>
     </row>
     <row r="233">
       <c r="A233">
@@ -7589,12 +6193,6 @@
       <c r="G233">
         <v>0.2</v>
       </c>
-      <c r="H233">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="I233">
-        <v>1019.3</v>
-      </c>
     </row>
     <row r="234">
       <c r="A234">
@@ -7620,12 +6218,6 @@
       <c r="G234">
         <v>1.9</v>
       </c>
-      <c r="H234">
-        <v>80.09999999999999</v>
-      </c>
-      <c r="I234">
-        <v>1019.1</v>
-      </c>
     </row>
     <row r="235">
       <c r="A235">
@@ -7651,12 +6243,6 @@
       <c r="G235">
         <v>0.8</v>
       </c>
-      <c r="H235">
-        <v>83.5</v>
-      </c>
-      <c r="I235">
-        <v>1018.6</v>
-      </c>
     </row>
     <row r="236">
       <c r="A236">
@@ -7682,12 +6268,6 @@
       <c r="G236">
         <v>0</v>
       </c>
-      <c r="H236">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="I236">
-        <v>1017.9</v>
-      </c>
     </row>
     <row r="237">
       <c r="A237">
@@ -7713,12 +6293,6 @@
       <c r="G237">
         <v>0</v>
       </c>
-      <c r="H237">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="I237">
-        <v>1015.7</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238">
@@ -7744,12 +6318,6 @@
       <c r="G238">
         <v>0</v>
       </c>
-      <c r="H238">
-        <v>75.3</v>
-      </c>
-      <c r="I238">
-        <v>1017.5</v>
-      </c>
     </row>
     <row r="239">
       <c r="A239">
@@ -7775,12 +6343,6 @@
       <c r="G239">
         <v>0</v>
       </c>
-      <c r="H239">
-        <v>72.90000000000001</v>
-      </c>
-      <c r="I239">
-        <v>1017.4</v>
-      </c>
     </row>
     <row r="240">
       <c r="A240">
@@ -7806,12 +6368,6 @@
       <c r="G240">
         <v>0</v>
       </c>
-      <c r="H240">
-        <v>76.40000000000001</v>
-      </c>
-      <c r="I240">
-        <v>1013.6</v>
-      </c>
     </row>
     <row r="241">
       <c r="A241">
@@ -7837,12 +6393,6 @@
       <c r="G241">
         <v>0</v>
       </c>
-      <c r="H241">
-        <v>74.3</v>
-      </c>
-      <c r="I241">
-        <v>1019.6</v>
-      </c>
     </row>
     <row r="242">
       <c r="A242">
@@ -7868,12 +6418,6 @@
       <c r="G242">
         <v>0</v>
       </c>
-      <c r="H242">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="I242">
-        <v>1018.9</v>
-      </c>
     </row>
     <row r="243">
       <c r="A243">
@@ -7899,12 +6443,6 @@
       <c r="G243">
         <v>0</v>
       </c>
-      <c r="H243">
-        <v>56.5</v>
-      </c>
-      <c r="I243">
-        <v>1014</v>
-      </c>
     </row>
     <row r="244">
       <c r="A244">
@@ -7930,12 +6468,6 @@
       <c r="G244">
         <v>10.9</v>
       </c>
-      <c r="H244">
-        <v>64.8</v>
-      </c>
-      <c r="I244">
-        <v>1011.6</v>
-      </c>
     </row>
     <row r="245">
       <c r="A245">
@@ -7961,12 +6493,6 @@
       <c r="G245">
         <v>16.5</v>
       </c>
-      <c r="H245">
-        <v>94.8</v>
-      </c>
-      <c r="I245">
-        <v>1018.1</v>
-      </c>
     </row>
     <row r="246">
       <c r="A246">
@@ -7992,12 +6518,6 @@
       <c r="G246">
         <v>0</v>
       </c>
-      <c r="H246">
-        <v>81.8</v>
-      </c>
-      <c r="I246">
-        <v>1016.1</v>
-      </c>
     </row>
     <row r="247">
       <c r="A247">
@@ -8023,12 +6543,6 @@
       <c r="G247">
         <v>0</v>
       </c>
-      <c r="H247">
-        <v>84.5</v>
-      </c>
-      <c r="I247">
-        <v>1013.7</v>
-      </c>
     </row>
     <row r="248">
       <c r="A248">
@@ -8054,12 +6568,6 @@
       <c r="G248">
         <v>0.6</v>
       </c>
-      <c r="H248">
-        <v>76.3</v>
-      </c>
-      <c r="I248">
-        <v>1013</v>
-      </c>
     </row>
     <row r="249">
       <c r="A249">
@@ -8085,12 +6593,6 @@
       <c r="G249">
         <v>0.3</v>
       </c>
-      <c r="H249">
-        <v>86.59999999999999</v>
-      </c>
-      <c r="I249">
-        <v>1015.1</v>
-      </c>
     </row>
     <row r="250">
       <c r="A250">
@@ -8116,12 +6618,6 @@
       <c r="G250">
         <v>12.1</v>
       </c>
-      <c r="H250">
-        <v>90.5</v>
-      </c>
-      <c r="I250">
-        <v>1010.8</v>
-      </c>
     </row>
     <row r="251">
       <c r="A251">
@@ -8147,12 +6643,6 @@
       <c r="G251">
         <v>0.5</v>
       </c>
-      <c r="H251">
-        <v>82.90000000000001</v>
-      </c>
-      <c r="I251">
-        <v>1008.8</v>
-      </c>
     </row>
     <row r="252">
       <c r="A252">
@@ -8178,12 +6668,6 @@
       <c r="G252">
         <v>0.4</v>
       </c>
-      <c r="H252">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="I252">
-        <v>1009.1</v>
-      </c>
     </row>
     <row r="253">
       <c r="A253">
@@ -8209,12 +6693,6 @@
       <c r="G253">
         <v>0</v>
       </c>
-      <c r="H253">
-        <v>72.5</v>
-      </c>
-      <c r="I253">
-        <v>1002.3</v>
-      </c>
     </row>
     <row r="254">
       <c r="A254">
@@ -8240,12 +6718,6 @@
       <c r="G254">
         <v>0.8</v>
       </c>
-      <c r="H254">
-        <v>84.5</v>
-      </c>
-      <c r="I254">
-        <v>1005.4</v>
-      </c>
     </row>
     <row r="255">
       <c r="A255">
@@ -8271,12 +6743,6 @@
       <c r="G255">
         <v>0.1</v>
       </c>
-      <c r="H255">
-        <v>82.09999999999999</v>
-      </c>
-      <c r="I255">
-        <v>1003.3</v>
-      </c>
     </row>
     <row r="256">
       <c r="A256">
@@ -8302,12 +6768,6 @@
       <c r="G256">
         <v>0</v>
       </c>
-      <c r="H256">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="I256">
-        <v>1005.3</v>
-      </c>
     </row>
     <row r="257">
       <c r="A257">
@@ -8333,12 +6793,6 @@
       <c r="G257">
         <v>2.1</v>
       </c>
-      <c r="H257">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="I257">
-        <v>1004.1</v>
-      </c>
     </row>
     <row r="258">
       <c r="A258">
@@ -8364,12 +6818,6 @@
       <c r="G258">
         <v>0.5</v>
       </c>
-      <c r="H258">
-        <v>79.8</v>
-      </c>
-      <c r="I258">
-        <v>1001.2</v>
-      </c>
     </row>
     <row r="259">
       <c r="A259">
@@ -8395,12 +6843,6 @@
       <c r="G259">
         <v>0</v>
       </c>
-      <c r="H259">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="I259">
-        <v>1010</v>
-      </c>
     </row>
     <row r="260">
       <c r="A260">
@@ -8426,12 +6868,6 @@
       <c r="G260">
         <v>0</v>
       </c>
-      <c r="H260">
-        <v>81.3</v>
-      </c>
-      <c r="I260">
-        <v>1013.1</v>
-      </c>
     </row>
     <row r="261">
       <c r="A261">
@@ -8457,12 +6893,6 @@
       <c r="G261">
         <v>0</v>
       </c>
-      <c r="H261">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="I261">
-        <v>1012.6</v>
-      </c>
     </row>
     <row r="262">
       <c r="A262">
@@ -8488,12 +6918,6 @@
       <c r="G262">
         <v>0</v>
       </c>
-      <c r="H262">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="I262">
-        <v>1013.4</v>
-      </c>
     </row>
     <row r="263">
       <c r="A263">
@@ -8519,12 +6943,6 @@
       <c r="G263">
         <v>0</v>
       </c>
-      <c r="H263">
-        <v>76</v>
-      </c>
-      <c r="I263">
-        <v>1016.4</v>
-      </c>
     </row>
     <row r="264">
       <c r="A264">
@@ -8550,12 +6968,6 @@
       <c r="G264">
         <v>0</v>
       </c>
-      <c r="H264">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="I264">
-        <v>1017.9</v>
-      </c>
     </row>
     <row r="265">
       <c r="A265">
@@ -8581,12 +6993,6 @@
       <c r="G265">
         <v>0</v>
       </c>
-      <c r="H265">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="I265">
-        <v>1019</v>
-      </c>
     </row>
     <row r="266">
       <c r="A266">
@@ -8612,12 +7018,6 @@
       <c r="G266">
         <v>0.3</v>
       </c>
-      <c r="H266">
-        <v>85.8</v>
-      </c>
-      <c r="I266">
-        <v>1019.9</v>
-      </c>
     </row>
     <row r="267">
       <c r="A267">
@@ -8643,12 +7043,6 @@
       <c r="G267">
         <v>4.5</v>
       </c>
-      <c r="H267">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="I267">
-        <v>1020.4</v>
-      </c>
     </row>
     <row r="268">
       <c r="A268">
@@ -8674,12 +7068,6 @@
       <c r="G268">
         <v>1</v>
       </c>
-      <c r="H268">
-        <v>90.5</v>
-      </c>
-      <c r="I268">
-        <v>1022.4</v>
-      </c>
     </row>
     <row r="269">
       <c r="A269">
@@ -8705,12 +7093,6 @@
       <c r="G269">
         <v>0.4</v>
       </c>
-      <c r="H269">
-        <v>87.3</v>
-      </c>
-      <c r="I269">
-        <v>1024.1</v>
-      </c>
     </row>
     <row r="270">
       <c r="A270">
@@ -8736,12 +7118,6 @@
       <c r="G270">
         <v>0</v>
       </c>
-      <c r="H270">
-        <v>91.3</v>
-      </c>
-      <c r="I270">
-        <v>1028.2</v>
-      </c>
     </row>
     <row r="271">
       <c r="A271">
@@ -8767,12 +7143,6 @@
       <c r="G271">
         <v>0</v>
       </c>
-      <c r="H271">
-        <v>70.8</v>
-      </c>
-      <c r="I271">
-        <v>1029.3</v>
-      </c>
     </row>
     <row r="272">
       <c r="A272">
@@ -8798,12 +7168,6 @@
       <c r="G272">
         <v>0</v>
       </c>
-      <c r="H272">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="I272">
-        <v>1030</v>
-      </c>
     </row>
     <row r="273">
       <c r="A273">
@@ -8829,12 +7193,6 @@
       <c r="G273">
         <v>0</v>
       </c>
-      <c r="H273">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="I273">
-        <v>1028.4</v>
-      </c>
     </row>
     <row r="274">
       <c r="A274">
@@ -8860,12 +7218,6 @@
       <c r="G274">
         <v>0</v>
       </c>
-      <c r="H274">
-        <v>75</v>
-      </c>
-      <c r="I274">
-        <v>1023.4</v>
-      </c>
     </row>
     <row r="275">
       <c r="A275">
@@ -8891,12 +7243,6 @@
       <c r="G275">
         <v>0</v>
       </c>
-      <c r="H275">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="I275">
-        <v>1022.7</v>
-      </c>
     </row>
     <row r="276">
       <c r="A276">
@@ -8922,12 +7268,6 @@
       <c r="G276">
         <v>6.3</v>
       </c>
-      <c r="H276">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="I276">
-        <v>1017.6</v>
-      </c>
     </row>
     <row r="277">
       <c r="A277">
@@ -8953,12 +7293,6 @@
       <c r="G277">
         <v>0</v>
       </c>
-      <c r="H277">
-        <v>88</v>
-      </c>
-      <c r="I277">
-        <v>1012.5</v>
-      </c>
     </row>
     <row r="278">
       <c r="A278">
@@ -8984,12 +7318,6 @@
       <c r="G278">
         <v>1.9</v>
       </c>
-      <c r="H278">
-        <v>79.90000000000001</v>
-      </c>
-      <c r="I278">
-        <v>1016</v>
-      </c>
     </row>
     <row r="279">
       <c r="A279">
@@ -9015,12 +7343,6 @@
       <c r="G279">
         <v>13.7</v>
       </c>
-      <c r="H279">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="I279">
-        <v>1000.5</v>
-      </c>
     </row>
     <row r="280">
       <c r="A280">
@@ -9046,12 +7368,6 @@
       <c r="G280">
         <v>2.7</v>
       </c>
-      <c r="H280">
-        <v>90.3</v>
-      </c>
-      <c r="I280">
-        <v>1006.5</v>
-      </c>
     </row>
     <row r="281">
       <c r="A281">
@@ -9077,12 +7393,6 @@
       <c r="G281">
         <v>6.8</v>
       </c>
-      <c r="H281">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="I281">
-        <v>1012.3</v>
-      </c>
     </row>
     <row r="282">
       <c r="A282">
@@ -9108,12 +7418,6 @@
       <c r="G282">
         <v>0.2</v>
       </c>
-      <c r="H282">
-        <v>85.40000000000001</v>
-      </c>
-      <c r="I282">
-        <v>1008.3</v>
-      </c>
     </row>
     <row r="283">
       <c r="A283">
@@ -9139,12 +7443,6 @@
       <c r="G283">
         <v>0</v>
       </c>
-      <c r="H283">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="I283">
-        <v>1013.1</v>
-      </c>
     </row>
     <row r="284">
       <c r="A284">
@@ -9170,12 +7468,6 @@
       <c r="G284">
         <v>1.6</v>
       </c>
-      <c r="H284">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="I284">
-        <v>1013</v>
-      </c>
     </row>
     <row r="285">
       <c r="A285">
@@ -9201,12 +7493,6 @@
       <c r="G285">
         <v>0.4</v>
       </c>
-      <c r="H285">
-        <v>87.8</v>
-      </c>
-      <c r="I285">
-        <v>1013.9</v>
-      </c>
     </row>
     <row r="286">
       <c r="A286">
@@ -9232,12 +7518,6 @@
       <c r="G286">
         <v>0.1</v>
       </c>
-      <c r="H286">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="I286">
-        <v>1014.6</v>
-      </c>
     </row>
     <row r="287">
       <c r="A287">
@@ -9263,12 +7543,6 @@
       <c r="G287">
         <v>0</v>
       </c>
-      <c r="H287">
-        <v>76.8</v>
-      </c>
-      <c r="I287">
-        <v>1021.8</v>
-      </c>
     </row>
     <row r="288">
       <c r="A288">
@@ -9294,12 +7568,6 @@
       <c r="G288">
         <v>0</v>
       </c>
-      <c r="H288">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="I288">
-        <v>1024.3</v>
-      </c>
     </row>
     <row r="289">
       <c r="A289">
@@ -9325,12 +7593,6 @@
       <c r="G289">
         <v>0</v>
       </c>
-      <c r="H289">
-        <v>86.90000000000001</v>
-      </c>
-      <c r="I289">
-        <v>1025.7</v>
-      </c>
     </row>
     <row r="290">
       <c r="A290">
@@ -9356,12 +7618,6 @@
       <c r="G290">
         <v>0</v>
       </c>
-      <c r="H290">
-        <v>82.09999999999999</v>
-      </c>
-      <c r="I290">
-        <v>1023</v>
-      </c>
     </row>
     <row r="291">
       <c r="A291">
@@ -9387,12 +7643,6 @@
       <c r="G291">
         <v>0</v>
       </c>
-      <c r="H291">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="I291">
-        <v>1021.2</v>
-      </c>
     </row>
     <row r="292">
       <c r="A292">
@@ -9418,12 +7668,6 @@
       <c r="G292">
         <v>0</v>
       </c>
-      <c r="H292">
-        <v>84.8</v>
-      </c>
-      <c r="I292">
-        <v>1016.3</v>
-      </c>
     </row>
     <row r="293">
       <c r="A293">
@@ -9449,12 +7693,6 @@
       <c r="G293">
         <v>0</v>
       </c>
-      <c r="H293">
-        <v>90</v>
-      </c>
-      <c r="I293">
-        <v>1016.2</v>
-      </c>
     </row>
     <row r="294">
       <c r="A294">
@@ -9480,12 +7718,6 @@
       <c r="G294">
         <v>0.2</v>
       </c>
-      <c r="H294">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="I294">
-        <v>1015.7</v>
-      </c>
     </row>
     <row r="295">
       <c r="A295">
@@ -9511,12 +7743,6 @@
       <c r="G295">
         <v>0.1</v>
       </c>
-      <c r="H295">
-        <v>86.5</v>
-      </c>
-      <c r="I295">
-        <v>1015</v>
-      </c>
     </row>
     <row r="296">
       <c r="A296">
@@ -9542,12 +7768,6 @@
       <c r="G296">
         <v>6.3</v>
       </c>
-      <c r="H296">
-        <v>93.59999999999999</v>
-      </c>
-      <c r="I296">
-        <v>1013.2</v>
-      </c>
     </row>
     <row r="297">
       <c r="A297">
@@ -9573,12 +7793,6 @@
       <c r="G297">
         <v>2.8</v>
       </c>
-      <c r="H297">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="I297">
-        <v>1015.2</v>
-      </c>
     </row>
     <row r="298">
       <c r="A298">
@@ -9604,12 +7818,6 @@
       <c r="G298">
         <v>8.199999999999999</v>
       </c>
-      <c r="H298">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="I298">
-        <v>1023.2</v>
-      </c>
     </row>
     <row r="299">
       <c r="A299">
@@ -9635,12 +7843,6 @@
       <c r="G299">
         <v>5</v>
       </c>
-      <c r="H299">
-        <v>93.5</v>
-      </c>
-      <c r="I299">
-        <v>1018.4</v>
-      </c>
     </row>
     <row r="300">
       <c r="A300">
@@ -9666,12 +7868,6 @@
       <c r="G300">
         <v>1.4</v>
       </c>
-      <c r="H300">
-        <v>83</v>
-      </c>
-      <c r="I300">
-        <v>1019.6</v>
-      </c>
     </row>
     <row r="301">
       <c r="A301">
@@ -9697,12 +7893,6 @@
       <c r="G301">
         <v>2.3</v>
       </c>
-      <c r="H301">
-        <v>87.8</v>
-      </c>
-      <c r="I301">
-        <v>1013.8</v>
-      </c>
     </row>
     <row r="302">
       <c r="A302">
@@ -9728,12 +7918,6 @@
       <c r="G302">
         <v>6.8</v>
       </c>
-      <c r="H302">
-        <v>89</v>
-      </c>
-      <c r="I302">
-        <v>1007.2</v>
-      </c>
     </row>
     <row r="303">
       <c r="A303">
@@ -9759,12 +7943,6 @@
       <c r="G303">
         <v>1.1</v>
       </c>
-      <c r="H303">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="I303">
-        <v>990.4</v>
-      </c>
     </row>
     <row r="304">
       <c r="A304">
@@ -9790,12 +7968,6 @@
       <c r="G304">
         <v>0</v>
       </c>
-      <c r="H304">
-        <v>68.3</v>
-      </c>
-      <c r="I304">
-        <v>1012.2</v>
-      </c>
     </row>
     <row r="305">
       <c r="A305">
@@ -9821,12 +7993,6 @@
       <c r="G305">
         <v>0</v>
       </c>
-      <c r="H305">
-        <v>80.3</v>
-      </c>
-      <c r="I305">
-        <v>1020.9</v>
-      </c>
     </row>
     <row r="306">
       <c r="A306">
@@ -9852,12 +8018,6 @@
       <c r="G306">
         <v>7.3</v>
       </c>
-      <c r="H306">
-        <v>89.8</v>
-      </c>
-      <c r="I306">
-        <v>1016.6</v>
-      </c>
     </row>
     <row r="307">
       <c r="A307">
@@ -9883,12 +8043,6 @@
       <c r="G307">
         <v>8</v>
       </c>
-      <c r="H307">
-        <v>94</v>
-      </c>
-      <c r="I307">
-        <v>1009.5</v>
-      </c>
     </row>
     <row r="308">
       <c r="A308">
@@ -9914,12 +8068,6 @@
       <c r="G308">
         <v>0.4</v>
       </c>
-      <c r="H308">
-        <v>91.3</v>
-      </c>
-      <c r="I308">
-        <v>1015.7</v>
-      </c>
     </row>
     <row r="309">
       <c r="A309">
@@ -9945,12 +8093,6 @@
       <c r="G309">
         <v>0</v>
       </c>
-      <c r="H309">
-        <v>86.5</v>
-      </c>
-      <c r="I309">
-        <v>1014.8</v>
-      </c>
     </row>
     <row r="310">
       <c r="A310">
@@ -9976,12 +8118,6 @@
       <c r="G310">
         <v>0.8</v>
       </c>
-      <c r="H310">
-        <v>83.8</v>
-      </c>
-      <c r="I310">
-        <v>1008.6</v>
-      </c>
     </row>
     <row r="311">
       <c r="A311">
@@ -10007,12 +8143,6 @@
       <c r="G311">
         <v>0.9</v>
       </c>
-      <c r="H311">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="I311">
-        <v>1018.1</v>
-      </c>
     </row>
     <row r="312">
       <c r="A312">
@@ -10038,12 +8168,6 @@
       <c r="G312">
         <v>0</v>
       </c>
-      <c r="H312">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="I312">
-        <v>1025.6</v>
-      </c>
     </row>
     <row r="313">
       <c r="A313">
@@ -10069,12 +8193,6 @@
       <c r="G313">
         <v>0</v>
       </c>
-      <c r="H313">
-        <v>78.8</v>
-      </c>
-      <c r="I313">
-        <v>1022.7</v>
-      </c>
     </row>
     <row r="314">
       <c r="A314">
@@ -10100,12 +8218,6 @@
       <c r="G314">
         <v>0</v>
       </c>
-      <c r="H314">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="I314">
-        <v>1021.5</v>
-      </c>
     </row>
     <row r="315">
       <c r="A315">
@@ -10131,12 +8243,6 @@
       <c r="G315">
         <v>3.3</v>
       </c>
-      <c r="H315">
-        <v>91.90000000000001</v>
-      </c>
-      <c r="I315">
-        <v>1011.7</v>
-      </c>
     </row>
     <row r="316">
       <c r="A316">
@@ -10162,12 +8268,6 @@
       <c r="G316">
         <v>1.5</v>
       </c>
-      <c r="H316">
-        <v>85.8</v>
-      </c>
-      <c r="I316">
-        <v>1004.3</v>
-      </c>
     </row>
     <row r="317">
       <c r="A317">
@@ -10193,12 +8293,6 @@
       <c r="G317">
         <v>0</v>
       </c>
-      <c r="H317">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="I317">
-        <v>1002.7</v>
-      </c>
     </row>
     <row r="318">
       <c r="A318">
@@ -10224,12 +8318,6 @@
       <c r="G318">
         <v>0.4</v>
       </c>
-      <c r="H318">
-        <v>93</v>
-      </c>
-      <c r="I318">
-        <v>1008.9</v>
-      </c>
     </row>
     <row r="319">
       <c r="A319">
@@ -10255,12 +8343,6 @@
       <c r="G319">
         <v>0.2</v>
       </c>
-      <c r="H319">
-        <v>91.90000000000001</v>
-      </c>
-      <c r="I319">
-        <v>1021.4</v>
-      </c>
     </row>
     <row r="320">
       <c r="A320">
@@ -10286,12 +8368,6 @@
       <c r="G320">
         <v>0.6</v>
       </c>
-      <c r="H320">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="I320">
-        <v>1024.9</v>
-      </c>
     </row>
     <row r="321">
       <c r="A321">
@@ -10317,12 +8393,6 @@
       <c r="G321">
         <v>0</v>
       </c>
-      <c r="H321">
-        <v>94.8</v>
-      </c>
-      <c r="I321">
-        <v>1025.4</v>
-      </c>
     </row>
     <row r="322">
       <c r="A322">
@@ -10348,12 +8418,6 @@
       <c r="G322">
         <v>1.1</v>
       </c>
-      <c r="H322">
-        <v>90.5</v>
-      </c>
-      <c r="I322">
-        <v>1022.7</v>
-      </c>
     </row>
     <row r="323">
       <c r="A323">
@@ -10379,12 +8443,6 @@
       <c r="G323">
         <v>0.7</v>
       </c>
-      <c r="H323">
-        <v>90</v>
-      </c>
-      <c r="I323">
-        <v>1015.5</v>
-      </c>
     </row>
     <row r="324">
       <c r="A324">
@@ -10410,12 +8468,6 @@
       <c r="G324">
         <v>3.5</v>
       </c>
-      <c r="H324">
-        <v>82.3</v>
-      </c>
-      <c r="I324">
-        <v>1004.8</v>
-      </c>
     </row>
     <row r="325">
       <c r="A325">
@@ -10441,12 +8493,6 @@
       <c r="G325">
         <v>0.3</v>
       </c>
-      <c r="H325">
-        <v>88.5</v>
-      </c>
-      <c r="I325">
-        <v>1010.9</v>
-      </c>
     </row>
     <row r="326">
       <c r="A326">
@@ -10472,12 +8518,6 @@
       <c r="G326">
         <v>0.9</v>
       </c>
-      <c r="H326">
-        <v>92.59999999999999</v>
-      </c>
-      <c r="I326">
-        <v>1012</v>
-      </c>
     </row>
     <row r="327">
       <c r="A327">
@@ -10503,12 +8543,6 @@
       <c r="G327">
         <v>3.7</v>
       </c>
-      <c r="H327">
-        <v>94</v>
-      </c>
-      <c r="I327">
-        <v>1010.1</v>
-      </c>
     </row>
     <row r="328">
       <c r="A328">
@@ -10534,12 +8568,6 @@
       <c r="G328">
         <v>0</v>
       </c>
-      <c r="H328">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="I328">
-        <v>1010.1</v>
-      </c>
     </row>
     <row r="329">
       <c r="A329">
@@ -10565,12 +8593,6 @@
       <c r="G329">
         <v>0.2</v>
       </c>
-      <c r="H329">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="I329">
-        <v>1011.4</v>
-      </c>
     </row>
     <row r="330">
       <c r="A330">
@@ -10596,12 +8618,6 @@
       <c r="G330">
         <v>4.6</v>
       </c>
-      <c r="H330">
-        <v>92.5</v>
-      </c>
-      <c r="I330">
-        <v>1008.5</v>
-      </c>
     </row>
     <row r="331">
       <c r="A331">
@@ -10627,12 +8643,6 @@
       <c r="G331">
         <v>0</v>
       </c>
-      <c r="H331">
-        <v>83.8</v>
-      </c>
-      <c r="I331">
-        <v>1017.2</v>
-      </c>
     </row>
     <row r="332">
       <c r="A332">
@@ -10658,12 +8668,6 @@
       <c r="G332">
         <v>0.2</v>
       </c>
-      <c r="H332">
-        <v>80.3</v>
-      </c>
-      <c r="I332">
-        <v>1017.4</v>
-      </c>
     </row>
     <row r="333">
       <c r="A333">
@@ -10689,12 +8693,6 @@
       <c r="G333">
         <v>3.5</v>
       </c>
-      <c r="H333">
-        <v>89.3</v>
-      </c>
-      <c r="I333">
-        <v>1007</v>
-      </c>
     </row>
     <row r="334">
       <c r="A334">
@@ -10720,12 +8718,6 @@
       <c r="G334">
         <v>0</v>
       </c>
-      <c r="H334">
-        <v>94.5</v>
-      </c>
-      <c r="I334">
-        <v>1007.1</v>
-      </c>
     </row>
     <row r="335">
       <c r="A335">
@@ -10751,12 +8743,6 @@
       <c r="G335">
         <v>0</v>
       </c>
-      <c r="H335">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="I335">
-        <v>1004.5</v>
-      </c>
     </row>
     <row r="336">
       <c r="A336">
@@ -10782,12 +8768,6 @@
       <c r="G336">
         <v>0.8</v>
       </c>
-      <c r="H336">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="I336">
-        <v>1012</v>
-      </c>
     </row>
     <row r="337">
       <c r="A337">
@@ -10813,12 +8793,6 @@
       <c r="G337">
         <v>0</v>
       </c>
-      <c r="H337">
-        <v>93.8</v>
-      </c>
-      <c r="I337">
-        <v>1024.5</v>
-      </c>
     </row>
     <row r="338">
       <c r="A338">
@@ -10844,12 +8818,6 @@
       <c r="G338">
         <v>0.7</v>
       </c>
-      <c r="H338">
-        <v>86.90000000000001</v>
-      </c>
-      <c r="I338">
-        <v>1022.3</v>
-      </c>
     </row>
     <row r="339">
       <c r="A339">
@@ -10875,12 +8843,6 @@
       <c r="G339">
         <v>0.1</v>
       </c>
-      <c r="H339">
-        <v>89.8</v>
-      </c>
-      <c r="I339">
-        <v>1017.4</v>
-      </c>
     </row>
     <row r="340">
       <c r="A340">
@@ -10906,12 +8868,6 @@
       <c r="G340">
         <v>2.1</v>
       </c>
-      <c r="H340">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="I340">
-        <v>1022.8</v>
-      </c>
     </row>
     <row r="341">
       <c r="A341">
@@ -10937,12 +8893,6 @@
       <c r="G341">
         <v>3.5</v>
       </c>
-      <c r="H341">
-        <v>88.59999999999999</v>
-      </c>
-      <c r="I341">
-        <v>1021.1</v>
-      </c>
     </row>
     <row r="342">
       <c r="A342">
@@ -10968,12 +8918,6 @@
       <c r="G342">
         <v>1.5</v>
       </c>
-      <c r="H342">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="I342">
-        <v>1015.4</v>
-      </c>
     </row>
     <row r="343">
       <c r="A343">
@@ -10999,12 +8943,6 @@
       <c r="G343">
         <v>0.3</v>
       </c>
-      <c r="H343">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="I343">
-        <v>1004.3</v>
-      </c>
     </row>
     <row r="344">
       <c r="A344">
@@ -11030,12 +8968,6 @@
       <c r="G344">
         <v>1.3</v>
       </c>
-      <c r="H344">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="I344">
-        <v>1005.6</v>
-      </c>
     </row>
     <row r="345">
       <c r="A345">
@@ -11061,12 +8993,6 @@
       <c r="G345">
         <v>3.1</v>
       </c>
-      <c r="H345">
-        <v>76.5</v>
-      </c>
-      <c r="I345">
-        <v>999</v>
-      </c>
     </row>
     <row r="346">
       <c r="A346">
@@ -11092,12 +9018,6 @@
       <c r="G346">
         <v>0.2</v>
       </c>
-      <c r="H346">
-        <v>83.8</v>
-      </c>
-      <c r="I346">
-        <v>988.3</v>
-      </c>
     </row>
     <row r="347">
       <c r="A347">
@@ -11123,12 +9043,6 @@
       <c r="G347">
         <v>0</v>
       </c>
-      <c r="H347">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="I347">
-        <v>998.3</v>
-      </c>
     </row>
     <row r="348">
       <c r="A348">
@@ -11154,12 +9068,6 @@
       <c r="G348">
         <v>1</v>
       </c>
-      <c r="H348">
-        <v>76.5</v>
-      </c>
-      <c r="I348">
-        <v>1011.3</v>
-      </c>
     </row>
     <row r="349">
       <c r="A349">
@@ -11185,12 +9093,6 @@
       <c r="G349">
         <v>6.9</v>
       </c>
-      <c r="H349">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="I349">
-        <v>993</v>
-      </c>
     </row>
     <row r="350">
       <c r="A350">
@@ -11216,12 +9118,6 @@
       <c r="G350">
         <v>0.5</v>
       </c>
-      <c r="H350">
-        <v>93.3</v>
-      </c>
-      <c r="I350">
-        <v>996.6</v>
-      </c>
     </row>
     <row r="351">
       <c r="A351">
@@ -11247,12 +9143,6 @@
       <c r="G351">
         <v>1.2</v>
       </c>
-      <c r="H351">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="I351">
-        <v>1005</v>
-      </c>
     </row>
     <row r="352">
       <c r="A352">
@@ -11278,12 +9168,6 @@
       <c r="G352">
         <v>0.4</v>
       </c>
-      <c r="H352">
-        <v>93.09999999999999</v>
-      </c>
-      <c r="I352">
-        <v>1016.7</v>
-      </c>
     </row>
     <row r="353">
       <c r="A353">
@@ -11309,12 +9193,6 @@
       <c r="G353">
         <v>0</v>
       </c>
-      <c r="H353">
-        <v>95.90000000000001</v>
-      </c>
-      <c r="I353">
-        <v>1026.9</v>
-      </c>
     </row>
     <row r="354">
       <c r="A354">
@@ -11340,12 +9218,6 @@
       <c r="G354">
         <v>0.5</v>
       </c>
-      <c r="H354">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="I354">
-        <v>1030.3</v>
-      </c>
     </row>
     <row r="355">
       <c r="A355">
@@ -11371,12 +9243,6 @@
       <c r="G355">
         <v>0.7</v>
       </c>
-      <c r="H355">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="I355">
-        <v>1033.2</v>
-      </c>
     </row>
     <row r="356">
       <c r="A356">
@@ -11402,12 +9268,6 @@
       <c r="G356">
         <v>1.7</v>
       </c>
-      <c r="H356">
-        <v>94</v>
-      </c>
-      <c r="I356">
-        <v>1026.7</v>
-      </c>
     </row>
     <row r="357">
       <c r="A357">
@@ -11433,12 +9293,6 @@
       <c r="G357">
         <v>0.9</v>
       </c>
-      <c r="H357">
-        <v>87</v>
-      </c>
-      <c r="I357">
-        <v>1027</v>
-      </c>
     </row>
     <row r="358">
       <c r="A358">
@@ -11464,12 +9318,6 @@
       <c r="G358">
         <v>0.2</v>
       </c>
-      <c r="H358">
-        <v>88.8</v>
-      </c>
-      <c r="I358">
-        <v>1020.7</v>
-      </c>
     </row>
     <row r="359">
       <c r="A359">
@@ -11495,12 +9343,6 @@
       <c r="G359">
         <v>1.5</v>
       </c>
-      <c r="H359">
-        <v>88.5</v>
-      </c>
-      <c r="I359">
-        <v>1014.3</v>
-      </c>
     </row>
     <row r="360">
       <c r="A360">
@@ -11526,12 +9368,6 @@
       <c r="G360">
         <v>0</v>
       </c>
-      <c r="H360">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="I360">
-        <v>1015.1</v>
-      </c>
     </row>
     <row r="361">
       <c r="A361">
@@ -11557,12 +9393,6 @@
       <c r="G361">
         <v>0</v>
       </c>
-      <c r="H361">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="I361">
-        <v>1005.2</v>
-      </c>
     </row>
     <row r="362">
       <c r="A362">
@@ -11588,12 +9418,6 @@
       <c r="G362">
         <v>0</v>
       </c>
-      <c r="H362">
-        <v>84.3</v>
-      </c>
-      <c r="I362">
-        <v>995.5</v>
-      </c>
     </row>
     <row r="363">
       <c r="A363">
@@ -11619,12 +9443,6 @@
       <c r="G363">
         <v>11.3</v>
       </c>
-      <c r="H363">
-        <v>95.3</v>
-      </c>
-      <c r="I363">
-        <v>991.5</v>
-      </c>
     </row>
     <row r="364">
       <c r="A364">
@@ -11650,12 +9468,6 @@
       <c r="G364">
         <v>0</v>
       </c>
-      <c r="H364">
-        <v>84.09999999999999</v>
-      </c>
-      <c r="I364">
-        <v>1005.6</v>
-      </c>
     </row>
     <row r="365">
       <c r="A365">
@@ -11681,12 +9493,6 @@
       <c r="G365">
         <v>4.6</v>
       </c>
-      <c r="H365">
-        <v>82</v>
-      </c>
-      <c r="I365">
-        <v>1005.6</v>
-      </c>
     </row>
     <row r="366">
       <c r="A366">
@@ -11712,12 +9518,6 @@
       <c r="G366">
         <v>1.5</v>
       </c>
-      <c r="H366">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="I366">
-        <v>1002.4</v>
-      </c>
     </row>
     <row r="367">
       <c r="A367">
@@ -11743,12 +9543,6 @@
       <c r="G367">
         <v>0</v>
       </c>
-      <c r="H367">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="I367">
-        <v>0</v>
-      </c>
     </row>
     <row r="368">
       <c r="A368">
@@ -11774,12 +9568,6 @@
       <c r="G368">
         <v>1.1</v>
       </c>
-      <c r="H368">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="I368">
-        <v>0</v>
-      </c>
     </row>
     <row r="369">
       <c r="A369">
@@ -11805,12 +9593,6 @@
       <c r="G369">
         <v>0.2</v>
       </c>
-      <c r="H369">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="I369">
-        <v>0</v>
-      </c>
     </row>
     <row r="370">
       <c r="A370">
@@ -11836,12 +9618,6 @@
       <c r="G370">
         <v>2.5</v>
       </c>
-      <c r="H370">
-        <v>69.8</v>
-      </c>
-      <c r="I370">
-        <v>0</v>
-      </c>
     </row>
     <row r="371">
       <c r="A371">
@@ -11867,12 +9643,6 @@
       <c r="G371">
         <v>2.2</v>
       </c>
-      <c r="H371">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="I371">
-        <v>0</v>
-      </c>
     </row>
     <row r="372">
       <c r="A372">
@@ -11898,12 +9668,6 @@
       <c r="G372">
         <v>0</v>
       </c>
-      <c r="H372">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="I372">
-        <v>0</v>
-      </c>
     </row>
     <row r="373">
       <c r="A373">
@@ -11929,12 +9693,6 @@
       <c r="G373">
         <v>0</v>
       </c>
-      <c r="H373">
-        <v>72</v>
-      </c>
-      <c r="I373">
-        <v>0</v>
-      </c>
     </row>
     <row r="374">
       <c r="A374">
@@ -11960,12 +9718,6 @@
       <c r="G374">
         <v>0</v>
       </c>
-      <c r="H374">
-        <v>76.8</v>
-      </c>
-      <c r="I374">
-        <v>0</v>
-      </c>
     </row>
     <row r="375">
       <c r="A375">
@@ -11991,12 +9743,6 @@
       <c r="G375">
         <v>0</v>
       </c>
-      <c r="H375">
-        <v>77.8</v>
-      </c>
-      <c r="I375">
-        <v>0</v>
-      </c>
     </row>
     <row r="376">
       <c r="A376">
@@ -12022,12 +9768,6 @@
       <c r="G376">
         <v>0</v>
       </c>
-      <c r="H376">
-        <v>82.90000000000001</v>
-      </c>
-      <c r="I376">
-        <v>0</v>
-      </c>
     </row>
     <row r="377">
       <c r="A377">
@@ -12053,12 +9793,6 @@
       <c r="G377">
         <v>0.4</v>
       </c>
-      <c r="H377">
-        <v>79.59999999999999</v>
-      </c>
-      <c r="I377">
-        <v>0</v>
-      </c>
     </row>
     <row r="378">
       <c r="A378">
@@ -12084,12 +9818,6 @@
       <c r="G378">
         <v>0.9</v>
       </c>
-      <c r="H378">
-        <v>81.5</v>
-      </c>
-      <c r="I378">
-        <v>0</v>
-      </c>
     </row>
     <row r="379">
       <c r="A379">
@@ -12115,12 +9843,6 @@
       <c r="G379">
         <v>3.4</v>
       </c>
-      <c r="H379">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="I379">
-        <v>0</v>
-      </c>
     </row>
     <row r="380">
       <c r="A380">
@@ -12146,12 +9868,6 @@
       <c r="G380">
         <v>2.8</v>
       </c>
-      <c r="H380">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="I380">
-        <v>0</v>
-      </c>
     </row>
     <row r="381">
       <c r="A381">
@@ -12177,12 +9893,6 @@
       <c r="G381">
         <v>0</v>
       </c>
-      <c r="H381">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="I381">
-        <v>0</v>
-      </c>
     </row>
     <row r="382">
       <c r="A382">
@@ -12208,12 +9918,6 @@
       <c r="G382">
         <v>0</v>
       </c>
-      <c r="H382">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="I382">
-        <v>0</v>
-      </c>
     </row>
     <row r="383">
       <c r="A383">
@@ -12239,12 +9943,6 @@
       <c r="G383">
         <v>0.1</v>
       </c>
-      <c r="H383">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="I383">
-        <v>0</v>
-      </c>
     </row>
     <row r="384">
       <c r="A384">
@@ -12270,12 +9968,6 @@
       <c r="G384">
         <v>0.1</v>
       </c>
-      <c r="H384">
-        <v>83.5</v>
-      </c>
-      <c r="I384">
-        <v>0</v>
-      </c>
     </row>
     <row r="385">
       <c r="A385">
@@ -12301,12 +9993,6 @@
       <c r="G385">
         <v>0</v>
       </c>
-      <c r="H385">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="I385">
-        <v>0</v>
-      </c>
     </row>
     <row r="386">
       <c r="A386">
@@ -12332,12 +10018,6 @@
       <c r="G386">
         <v>0</v>
       </c>
-      <c r="H386">
-        <v>71.40000000000001</v>
-      </c>
-      <c r="I386">
-        <v>0</v>
-      </c>
     </row>
     <row r="387">
       <c r="A387">
@@ -12363,12 +10043,6 @@
       <c r="G387">
         <v>0</v>
       </c>
-      <c r="H387">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="I387">
-        <v>0</v>
-      </c>
     </row>
     <row r="388">
       <c r="A388">
@@ -12394,12 +10068,6 @@
       <c r="G388">
         <v>0</v>
       </c>
-      <c r="H388">
-        <v>88.5</v>
-      </c>
-      <c r="I388">
-        <v>0</v>
-      </c>
     </row>
     <row r="389">
       <c r="A389">
@@ -12425,12 +10093,6 @@
       <c r="G389">
         <v>0</v>
       </c>
-      <c r="H389">
-        <v>83.40000000000001</v>
-      </c>
-      <c r="I389">
-        <v>0</v>
-      </c>
     </row>
     <row r="390">
       <c r="A390">
@@ -12456,12 +10118,6 @@
       <c r="G390">
         <v>0.8</v>
       </c>
-      <c r="H390">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="I390">
-        <v>0</v>
-      </c>
     </row>
     <row r="391">
       <c r="A391">
@@ -12487,12 +10143,6 @@
       <c r="G391">
         <v>0.3</v>
       </c>
-      <c r="H391">
-        <v>84.5</v>
-      </c>
-      <c r="I391">
-        <v>0</v>
-      </c>
     </row>
     <row r="392">
       <c r="A392">
@@ -12518,12 +10168,6 @@
       <c r="G392">
         <v>0</v>
       </c>
-      <c r="H392">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="I392">
-        <v>0</v>
-      </c>
     </row>
     <row r="393">
       <c r="A393">
@@ -12549,12 +10193,6 @@
       <c r="G393">
         <v>0</v>
       </c>
-      <c r="H393">
-        <v>67</v>
-      </c>
-      <c r="I393">
-        <v>0</v>
-      </c>
     </row>
     <row r="394">
       <c r="A394">
@@ -12580,12 +10218,6 @@
       <c r="G394">
         <v>0</v>
       </c>
-      <c r="H394">
-        <v>64</v>
-      </c>
-      <c r="I394">
-        <v>0</v>
-      </c>
     </row>
     <row r="395">
       <c r="A395">
@@ -12611,12 +10243,6 @@
       <c r="G395">
         <v>0</v>
       </c>
-      <c r="H395">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="I395">
-        <v>0</v>
-      </c>
     </row>
     <row r="396">
       <c r="A396">
@@ -12642,12 +10268,6 @@
       <c r="G396">
         <v>0</v>
       </c>
-      <c r="H396">
-        <v>70.8</v>
-      </c>
-      <c r="I396">
-        <v>0</v>
-      </c>
     </row>
     <row r="397">
       <c r="A397">
@@ -12673,12 +10293,6 @@
       <c r="G397">
         <v>0.2</v>
       </c>
-      <c r="H397">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="I397">
-        <v>0</v>
-      </c>
     </row>
     <row r="398">
       <c r="A398">
@@ -12704,12 +10318,6 @@
       <c r="G398">
         <v>2.9</v>
       </c>
-      <c r="H398">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="I398">
-        <v>0</v>
-      </c>
     </row>
     <row r="399">
       <c r="A399">
@@ -12735,12 +10343,6 @@
       <c r="G399">
         <v>1</v>
       </c>
-      <c r="H399">
-        <v>89.8</v>
-      </c>
-      <c r="I399">
-        <v>0</v>
-      </c>
     </row>
     <row r="400">
       <c r="A400">
@@ -12766,12 +10368,6 @@
       <c r="G400">
         <v>0</v>
       </c>
-      <c r="H400">
-        <v>89.3</v>
-      </c>
-      <c r="I400">
-        <v>0</v>
-      </c>
     </row>
     <row r="401">
       <c r="A401">
@@ -12797,12 +10393,6 @@
       <c r="G401">
         <v>0.1</v>
       </c>
-      <c r="H401">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="I401">
-        <v>0</v>
-      </c>
     </row>
     <row r="402">
       <c r="A402">
@@ -12828,12 +10418,6 @@
       <c r="G402">
         <v>1.5</v>
       </c>
-      <c r="H402">
-        <v>91.8</v>
-      </c>
-      <c r="I402">
-        <v>0</v>
-      </c>
     </row>
     <row r="403">
       <c r="A403">
@@ -12859,12 +10443,6 @@
       <c r="G403">
         <v>0</v>
       </c>
-      <c r="H403">
-        <v>91.90000000000001</v>
-      </c>
-      <c r="I403">
-        <v>0</v>
-      </c>
     </row>
     <row r="404">
       <c r="A404">
@@ -12890,12 +10468,6 @@
       <c r="G404">
         <v>0</v>
       </c>
-      <c r="H404">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="I404">
-        <v>0</v>
-      </c>
     </row>
     <row r="405">
       <c r="A405">
@@ -12921,12 +10493,6 @@
       <c r="G405">
         <v>0</v>
       </c>
-      <c r="H405">
-        <v>90.5</v>
-      </c>
-      <c r="I405">
-        <v>0</v>
-      </c>
     </row>
     <row r="406">
       <c r="A406">
@@ -12952,12 +10518,6 @@
       <c r="G406">
         <v>0</v>
       </c>
-      <c r="H406">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="I406">
-        <v>0</v>
-      </c>
     </row>
     <row r="407">
       <c r="A407">
@@ -12983,12 +10543,6 @@
       <c r="G407">
         <v>0</v>
       </c>
-      <c r="H407">
-        <v>89.8</v>
-      </c>
-      <c r="I407">
-        <v>0</v>
-      </c>
     </row>
     <row r="408">
       <c r="A408">
@@ -13014,12 +10568,6 @@
       <c r="G408">
         <v>0</v>
       </c>
-      <c r="H408">
-        <v>85.40000000000001</v>
-      </c>
-      <c r="I408">
-        <v>0</v>
-      </c>
     </row>
     <row r="409">
       <c r="A409">
@@ -13045,12 +10593,6 @@
       <c r="G409">
         <v>0</v>
       </c>
-      <c r="H409">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="I409">
-        <v>0</v>
-      </c>
     </row>
     <row r="410">
       <c r="A410">
@@ -13076,12 +10618,6 @@
       <c r="G410">
         <v>0</v>
       </c>
-      <c r="H410">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="I410">
-        <v>0</v>
-      </c>
     </row>
     <row r="411">
       <c r="A411">
@@ -13107,12 +10643,6 @@
       <c r="G411">
         <v>0</v>
       </c>
-      <c r="H411">
-        <v>59</v>
-      </c>
-      <c r="I411">
-        <v>0</v>
-      </c>
     </row>
     <row r="412">
       <c r="A412">
@@ -13138,12 +10668,6 @@
       <c r="G412">
         <v>0</v>
       </c>
-      <c r="H412">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="I412">
-        <v>0</v>
-      </c>
     </row>
     <row r="413">
       <c r="A413">
@@ -13169,12 +10693,6 @@
       <c r="G413">
         <v>0</v>
       </c>
-      <c r="H413">
-        <v>69</v>
-      </c>
-      <c r="I413">
-        <v>0</v>
-      </c>
     </row>
     <row r="414">
       <c r="A414">
@@ -13200,12 +10718,6 @@
       <c r="G414">
         <v>5.1</v>
       </c>
-      <c r="H414">
-        <v>75.5</v>
-      </c>
-      <c r="I414">
-        <v>0</v>
-      </c>
     </row>
     <row r="415">
       <c r="A415">
@@ -13231,12 +10743,6 @@
       <c r="G415">
         <v>1.4</v>
       </c>
-      <c r="H415">
-        <v>87.8</v>
-      </c>
-      <c r="I415">
-        <v>0</v>
-      </c>
     </row>
     <row r="416">
       <c r="A416">
@@ -13262,12 +10768,6 @@
       <c r="G416">
         <v>0</v>
       </c>
-      <c r="H416">
-        <v>84</v>
-      </c>
-      <c r="I416">
-        <v>0</v>
-      </c>
     </row>
     <row r="417">
       <c r="A417">
@@ -13293,12 +10793,6 @@
       <c r="G417">
         <v>0.8</v>
       </c>
-      <c r="H417">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="I417">
-        <v>0</v>
-      </c>
     </row>
     <row r="418">
       <c r="A418">
@@ -13324,12 +10818,6 @@
       <c r="G418">
         <v>1.2</v>
       </c>
-      <c r="H418">
-        <v>79.3</v>
-      </c>
-      <c r="I418">
-        <v>0</v>
-      </c>
     </row>
     <row r="419">
       <c r="A419">
@@ -13355,12 +10843,6 @@
       <c r="G419">
         <v>3.9</v>
       </c>
-      <c r="H419">
-        <v>74.5</v>
-      </c>
-      <c r="I419">
-        <v>0</v>
-      </c>
     </row>
     <row r="420">
       <c r="A420">
@@ -13386,12 +10868,6 @@
       <c r="G420">
         <v>0</v>
       </c>
-      <c r="H420">
-        <v>65.59999999999999</v>
-      </c>
-      <c r="I420">
-        <v>0</v>
-      </c>
     </row>
     <row r="421">
       <c r="A421">
@@ -13417,12 +10893,6 @@
       <c r="G421">
         <v>1.2</v>
       </c>
-      <c r="H421">
-        <v>55.3</v>
-      </c>
-      <c r="I421">
-        <v>0</v>
-      </c>
     </row>
     <row r="422">
       <c r="A422">
@@ -13448,12 +10918,6 @@
       <c r="G422">
         <v>0.1</v>
       </c>
-      <c r="H422">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="I422">
-        <v>0</v>
-      </c>
     </row>
     <row r="423">
       <c r="A423">
@@ -13479,12 +10943,6 @@
       <c r="G423">
         <v>0</v>
       </c>
-      <c r="H423">
-        <v>56.6</v>
-      </c>
-      <c r="I423">
-        <v>0</v>
-      </c>
     </row>
     <row r="424">
       <c r="A424">
@@ -13510,12 +10968,6 @@
       <c r="G424">
         <v>0</v>
       </c>
-      <c r="H424">
-        <v>56.9</v>
-      </c>
-      <c r="I424">
-        <v>0</v>
-      </c>
     </row>
     <row r="425">
       <c r="A425">
@@ -13541,12 +10993,6 @@
       <c r="G425">
         <v>2.5</v>
       </c>
-      <c r="H425">
-        <v>52.5</v>
-      </c>
-      <c r="I425">
-        <v>0</v>
-      </c>
     </row>
     <row r="426">
       <c r="A426">
@@ -13572,12 +11018,6 @@
       <c r="G426">
         <v>0.5</v>
       </c>
-      <c r="H426">
-        <v>73.59999999999999</v>
-      </c>
-      <c r="I426">
-        <v>0</v>
-      </c>
     </row>
     <row r="427">
       <c r="A427">
@@ -13603,12 +11043,6 @@
       <c r="G427">
         <v>0</v>
       </c>
-      <c r="H427">
-        <v>59.9</v>
-      </c>
-      <c r="I427">
-        <v>0</v>
-      </c>
     </row>
     <row r="428">
       <c r="A428">
@@ -13634,12 +11068,6 @@
       <c r="G428">
         <v>0</v>
       </c>
-      <c r="H428">
-        <v>50.4</v>
-      </c>
-      <c r="I428">
-        <v>0</v>
-      </c>
     </row>
     <row r="429">
       <c r="A429">
@@ -13665,12 +11093,6 @@
       <c r="G429">
         <v>0</v>
       </c>
-      <c r="H429">
-        <v>48.1</v>
-      </c>
-      <c r="I429">
-        <v>0</v>
-      </c>
     </row>
     <row r="430">
       <c r="A430">
@@ -13696,12 +11118,6 @@
       <c r="G430">
         <v>5.9</v>
       </c>
-      <c r="H430">
-        <v>51.3</v>
-      </c>
-      <c r="I430">
-        <v>0</v>
-      </c>
     </row>
     <row r="431">
       <c r="A431">
@@ -13727,12 +11143,6 @@
       <c r="G431">
         <v>0.3</v>
       </c>
-      <c r="H431">
-        <v>80.5</v>
-      </c>
-      <c r="I431">
-        <v>0</v>
-      </c>
     </row>
     <row r="432">
       <c r="A432">
@@ -13758,12 +11168,6 @@
       <c r="G432">
         <v>0.6</v>
       </c>
-      <c r="H432">
-        <v>75.5</v>
-      </c>
-      <c r="I432">
-        <v>0</v>
-      </c>
     </row>
     <row r="433">
       <c r="A433">
@@ -13789,12 +11193,6 @@
       <c r="G433">
         <v>0.4</v>
       </c>
-      <c r="H433">
-        <v>91.5</v>
-      </c>
-      <c r="I433">
-        <v>0</v>
-      </c>
     </row>
     <row r="434">
       <c r="A434">
@@ -13820,12 +11218,6 @@
       <c r="G434">
         <v>0.1</v>
       </c>
-      <c r="H434">
-        <v>86.3</v>
-      </c>
-      <c r="I434">
-        <v>0</v>
-      </c>
     </row>
     <row r="435">
       <c r="A435">
@@ -13851,12 +11243,6 @@
       <c r="G435">
         <v>0</v>
       </c>
-      <c r="H435">
-        <v>83.09999999999999</v>
-      </c>
-      <c r="I435">
-        <v>0</v>
-      </c>
     </row>
     <row r="436">
       <c r="A436">
@@ -13882,12 +11268,6 @@
       <c r="G436">
         <v>0.2</v>
       </c>
-      <c r="H436">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="I436">
-        <v>0</v>
-      </c>
     </row>
     <row r="437">
       <c r="A437">
@@ -13913,12 +11293,6 @@
       <c r="G437">
         <v>1.8</v>
       </c>
-      <c r="H437">
-        <v>79.59999999999999</v>
-      </c>
-      <c r="I437">
-        <v>0</v>
-      </c>
     </row>
     <row r="438">
       <c r="A438">
@@ -13944,12 +11318,6 @@
       <c r="G438">
         <v>0</v>
       </c>
-      <c r="H438">
-        <v>87.3</v>
-      </c>
-      <c r="I438">
-        <v>0</v>
-      </c>
     </row>
     <row r="439">
       <c r="A439">
@@ -13975,12 +11343,6 @@
       <c r="G439">
         <v>0</v>
       </c>
-      <c r="H439">
-        <v>70</v>
-      </c>
-      <c r="I439">
-        <v>0</v>
-      </c>
     </row>
     <row r="440">
       <c r="A440">
@@ -14006,12 +11368,6 @@
       <c r="G440">
         <v>0.7</v>
       </c>
-      <c r="H440">
-        <v>79.59999999999999</v>
-      </c>
-      <c r="I440">
-        <v>0</v>
-      </c>
     </row>
     <row r="441">
       <c r="A441">
@@ -14037,12 +11393,6 @@
       <c r="G441">
         <v>0</v>
       </c>
-      <c r="H441">
-        <v>63</v>
-      </c>
-      <c r="I441">
-        <v>0</v>
-      </c>
     </row>
     <row r="442">
       <c r="A442">
@@ -14068,12 +11418,6 @@
       <c r="G442">
         <v>3.3</v>
       </c>
-      <c r="H442">
-        <v>60</v>
-      </c>
-      <c r="I442">
-        <v>0</v>
-      </c>
     </row>
     <row r="443">
       <c r="A443">
@@ -14099,12 +11443,6 @@
       <c r="G443">
         <v>2.5</v>
       </c>
-      <c r="H443">
-        <v>81.5</v>
-      </c>
-      <c r="I443">
-        <v>0</v>
-      </c>
     </row>
     <row r="444">
       <c r="A444">
@@ -14130,12 +11468,6 @@
       <c r="G444">
         <v>8.5</v>
       </c>
-      <c r="H444">
-        <v>59.5</v>
-      </c>
-      <c r="I444">
-        <v>0</v>
-      </c>
     </row>
     <row r="445">
       <c r="A445">
@@ -14161,12 +11493,6 @@
       <c r="G445">
         <v>1.7</v>
       </c>
-      <c r="H445">
-        <v>87</v>
-      </c>
-      <c r="I445">
-        <v>0</v>
-      </c>
     </row>
     <row r="446">
       <c r="A446">
@@ -14192,12 +11518,6 @@
       <c r="G446">
         <v>1.5</v>
       </c>
-      <c r="H446">
-        <v>73.5</v>
-      </c>
-      <c r="I446">
-        <v>0</v>
-      </c>
     </row>
     <row r="447">
       <c r="A447">
@@ -14223,12 +11543,6 @@
       <c r="G447">
         <v>3.6</v>
       </c>
-      <c r="H447">
-        <v>92.8</v>
-      </c>
-      <c r="I447">
-        <v>0</v>
-      </c>
     </row>
     <row r="448">
       <c r="A448">
@@ -14254,12 +11568,6 @@
       <c r="G448">
         <v>0.2</v>
       </c>
-      <c r="H448">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="I448">
-        <v>0</v>
-      </c>
     </row>
     <row r="449">
       <c r="A449">
@@ -14285,12 +11593,6 @@
       <c r="G449">
         <v>0.8</v>
       </c>
-      <c r="H449">
-        <v>95.5</v>
-      </c>
-      <c r="I449">
-        <v>0</v>
-      </c>
     </row>
     <row r="450">
       <c r="A450">
@@ -14316,12 +11618,6 @@
       <c r="G450">
         <v>0</v>
       </c>
-      <c r="H450">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="I450">
-        <v>0</v>
-      </c>
     </row>
     <row r="451">
       <c r="A451">
@@ -14347,12 +11643,6 @@
       <c r="G451">
         <v>0</v>
       </c>
-      <c r="H451">
-        <v>68.5</v>
-      </c>
-      <c r="I451">
-        <v>0</v>
-      </c>
     </row>
     <row r="452">
       <c r="A452">
@@ -14378,12 +11668,6 @@
       <c r="G452">
         <v>0</v>
       </c>
-      <c r="H452">
-        <v>58.3</v>
-      </c>
-      <c r="I452">
-        <v>0</v>
-      </c>
     </row>
     <row r="453">
       <c r="A453">
@@ -14409,12 +11693,6 @@
       <c r="G453">
         <v>0</v>
       </c>
-      <c r="H453">
-        <v>57.6</v>
-      </c>
-      <c r="I453">
-        <v>0</v>
-      </c>
     </row>
     <row r="454">
       <c r="A454">
@@ -14440,12 +11718,6 @@
       <c r="G454">
         <v>4.5</v>
       </c>
-      <c r="H454">
-        <v>55.5</v>
-      </c>
-      <c r="I454">
-        <v>0</v>
-      </c>
     </row>
     <row r="455">
       <c r="A455">
@@ -14471,12 +11743,6 @@
       <c r="G455">
         <v>0</v>
       </c>
-      <c r="H455">
-        <v>76.5</v>
-      </c>
-      <c r="I455">
-        <v>0</v>
-      </c>
     </row>
     <row r="456">
       <c r="A456">
@@ -14502,12 +11768,6 @@
       <c r="G456">
         <v>0</v>
       </c>
-      <c r="H456">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="I456">
-        <v>0</v>
-      </c>
     </row>
     <row r="457">
       <c r="A457">
@@ -14533,12 +11793,6 @@
       <c r="G457">
         <v>0</v>
       </c>
-      <c r="H457">
-        <v>56.8</v>
-      </c>
-      <c r="I457">
-        <v>0</v>
-      </c>
     </row>
     <row r="458">
       <c r="A458">
@@ -14564,12 +11818,6 @@
       <c r="G458">
         <v>0</v>
       </c>
-      <c r="H458">
-        <v>47.5</v>
-      </c>
-      <c r="I458">
-        <v>0</v>
-      </c>
     </row>
     <row r="459">
       <c r="A459">
@@ -14595,12 +11843,6 @@
       <c r="G459">
         <v>38.1</v>
       </c>
-      <c r="H459">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="I459">
-        <v>0</v>
-      </c>
     </row>
     <row r="460">
       <c r="A460">
@@ -14626,12 +11868,6 @@
       <c r="G460">
         <v>14</v>
       </c>
-      <c r="H460">
-        <v>83.3</v>
-      </c>
-      <c r="I460">
-        <v>0</v>
-      </c>
     </row>
     <row r="461">
       <c r="A461">
@@ -14657,12 +11893,6 @@
       <c r="G461">
         <v>11.2</v>
       </c>
-      <c r="H461">
-        <v>81.8</v>
-      </c>
-      <c r="I461">
-        <v>0</v>
-      </c>
     </row>
     <row r="462">
       <c r="A462">
@@ -14688,12 +11918,6 @@
       <c r="G462">
         <v>14</v>
       </c>
-      <c r="H462">
-        <v>88.59999999999999</v>
-      </c>
-      <c r="I462">
-        <v>0</v>
-      </c>
     </row>
     <row r="463">
       <c r="A463">
@@ -14719,12 +11943,6 @@
       <c r="G463">
         <v>9.1</v>
       </c>
-      <c r="H463">
-        <v>91.59999999999999</v>
-      </c>
-      <c r="I463">
-        <v>0</v>
-      </c>
     </row>
     <row r="464">
       <c r="A464">
@@ -14750,12 +11968,6 @@
       <c r="G464">
         <v>1.8</v>
       </c>
-      <c r="H464">
-        <v>87.5</v>
-      </c>
-      <c r="I464">
-        <v>0</v>
-      </c>
     </row>
     <row r="465">
       <c r="A465">
@@ -14781,12 +11993,6 @@
       <c r="G465">
         <v>0</v>
       </c>
-      <c r="H465">
-        <v>76.5</v>
-      </c>
-      <c r="I465">
-        <v>0</v>
-      </c>
     </row>
     <row r="466">
       <c r="A466">
@@ -14812,12 +12018,6 @@
       <c r="G466">
         <v>1.2</v>
       </c>
-      <c r="H466">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="I466">
-        <v>0</v>
-      </c>
     </row>
     <row r="467">
       <c r="A467">
@@ -14843,12 +12043,6 @@
       <c r="G467">
         <v>2.6</v>
       </c>
-      <c r="H467">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="I467">
-        <v>0</v>
-      </c>
     </row>
     <row r="468">
       <c r="A468">
@@ -14874,12 +12068,6 @@
       <c r="G468">
         <v>0.2</v>
       </c>
-      <c r="H468">
-        <v>61</v>
-      </c>
-      <c r="I468">
-        <v>0</v>
-      </c>
     </row>
     <row r="469">
       <c r="A469">
@@ -14905,12 +12093,6 @@
       <c r="G469">
         <v>8.6</v>
       </c>
-      <c r="H469">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="I469">
-        <v>0</v>
-      </c>
     </row>
     <row r="470">
       <c r="A470">
@@ -14936,12 +12118,6 @@
       <c r="G470">
         <v>0</v>
       </c>
-      <c r="H470">
-        <v>73.59999999999999</v>
-      </c>
-      <c r="I470">
-        <v>0</v>
-      </c>
     </row>
     <row r="471">
       <c r="A471">
@@ -14967,12 +12143,6 @@
       <c r="G471">
         <v>4.5</v>
       </c>
-      <c r="H471">
-        <v>61.5</v>
-      </c>
-      <c r="I471">
-        <v>0</v>
-      </c>
     </row>
     <row r="472">
       <c r="A472">
@@ -14998,12 +12168,6 @@
       <c r="G472">
         <v>4.5</v>
       </c>
-      <c r="H472">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="I472">
-        <v>0</v>
-      </c>
     </row>
     <row r="473">
       <c r="A473">
@@ -15029,12 +12193,6 @@
       <c r="G473">
         <v>7.3</v>
       </c>
-      <c r="H473">
-        <v>78.5</v>
-      </c>
-      <c r="I473">
-        <v>0</v>
-      </c>
     </row>
     <row r="474">
       <c r="A474">
@@ -15060,12 +12218,6 @@
       <c r="G474">
         <v>5.6</v>
       </c>
-      <c r="H474">
-        <v>89.3</v>
-      </c>
-      <c r="I474">
-        <v>0</v>
-      </c>
     </row>
     <row r="475">
       <c r="A475">
@@ -15091,12 +12243,6 @@
       <c r="G475">
         <v>31</v>
       </c>
-      <c r="H475">
-        <v>92.09999999999999</v>
-      </c>
-      <c r="I475">
-        <v>0</v>
-      </c>
     </row>
     <row r="476">
       <c r="A476">
@@ -15122,12 +12268,6 @@
       <c r="G476">
         <v>6</v>
       </c>
-      <c r="H476">
-        <v>86.59999999999999</v>
-      </c>
-      <c r="I476">
-        <v>0</v>
-      </c>
     </row>
     <row r="477">
       <c r="A477">
@@ -15153,12 +12293,6 @@
       <c r="G477">
         <v>0</v>
       </c>
-      <c r="H477">
-        <v>71.8</v>
-      </c>
-      <c r="I477">
-        <v>0</v>
-      </c>
     </row>
     <row r="478">
       <c r="A478">
@@ -15184,12 +12318,6 @@
       <c r="G478">
         <v>8.9</v>
       </c>
-      <c r="H478">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="I478">
-        <v>0</v>
-      </c>
     </row>
     <row r="479">
       <c r="A479">
@@ -15215,12 +12343,6 @@
       <c r="G479">
         <v>5.2</v>
       </c>
-      <c r="H479">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="I479">
-        <v>0</v>
-      </c>
     </row>
     <row r="480">
       <c r="A480">
@@ -15246,12 +12368,6 @@
       <c r="G480">
         <v>0.1</v>
       </c>
-      <c r="H480">
-        <v>71</v>
-      </c>
-      <c r="I480">
-        <v>0</v>
-      </c>
     </row>
     <row r="481">
       <c r="A481">
@@ -15277,12 +12393,6 @@
       <c r="G481">
         <v>1.6</v>
       </c>
-      <c r="H481">
-        <v>55.8</v>
-      </c>
-      <c r="I481">
-        <v>0</v>
-      </c>
     </row>
     <row r="482">
       <c r="A482">
@@ -15308,12 +12418,6 @@
       <c r="G482">
         <v>1.6</v>
       </c>
-      <c r="H482">
-        <v>63.9</v>
-      </c>
-      <c r="I482">
-        <v>0</v>
-      </c>
     </row>
     <row r="483">
       <c r="A483">
@@ -15339,12 +12443,6 @@
       <c r="G483">
         <v>9.300000000000001</v>
       </c>
-      <c r="H483">
-        <v>92</v>
-      </c>
-      <c r="I483">
-        <v>0</v>
-      </c>
     </row>
     <row r="484">
       <c r="A484">
@@ -15370,12 +12468,6 @@
       <c r="G484">
         <v>26.5</v>
       </c>
-      <c r="H484">
-        <v>88.59999999999999</v>
-      </c>
-      <c r="I484">
-        <v>0</v>
-      </c>
     </row>
     <row r="485">
       <c r="A485">
@@ -15401,12 +12493,6 @@
       <c r="G485">
         <v>0.2</v>
       </c>
-      <c r="H485">
-        <v>80.5</v>
-      </c>
-      <c r="I485">
-        <v>0</v>
-      </c>
     </row>
     <row r="486">
       <c r="A486">
@@ -15432,12 +12518,6 @@
       <c r="G486">
         <v>0</v>
       </c>
-      <c r="H486">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="I486">
-        <v>0</v>
-      </c>
     </row>
     <row r="487">
       <c r="A487">
@@ -15463,12 +12543,6 @@
       <c r="G487">
         <v>0</v>
       </c>
-      <c r="H487">
-        <v>70</v>
-      </c>
-      <c r="I487">
-        <v>0</v>
-      </c>
     </row>
     <row r="488">
       <c r="A488">
@@ -15494,12 +12568,6 @@
       <c r="G488">
         <v>1.9</v>
       </c>
-      <c r="H488">
-        <v>82.09999999999999</v>
-      </c>
-      <c r="I488">
-        <v>0</v>
-      </c>
     </row>
     <row r="489">
       <c r="A489">
@@ -15525,12 +12593,6 @@
       <c r="G489">
         <v>11.9</v>
       </c>
-      <c r="H489">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="I489">
-        <v>0</v>
-      </c>
     </row>
     <row r="490">
       <c r="A490">
@@ -15556,12 +12618,6 @@
       <c r="G490">
         <v>1.4</v>
       </c>
-      <c r="H490">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="I490">
-        <v>0</v>
-      </c>
     </row>
     <row r="491">
       <c r="A491">
@@ -15587,12 +12643,6 @@
       <c r="G491">
         <v>6.8</v>
       </c>
-      <c r="H491">
-        <v>78.5</v>
-      </c>
-      <c r="I491">
-        <v>0</v>
-      </c>
     </row>
     <row r="492">
       <c r="A492">
@@ -15618,12 +12668,6 @@
       <c r="G492">
         <v>9.4</v>
       </c>
-      <c r="H492">
-        <v>88.8</v>
-      </c>
-      <c r="I492">
-        <v>0</v>
-      </c>
     </row>
     <row r="493">
       <c r="A493">
@@ -15649,12 +12693,6 @@
       <c r="G493">
         <v>15.3</v>
       </c>
-      <c r="H493">
-        <v>92.3</v>
-      </c>
-      <c r="I493">
-        <v>0</v>
-      </c>
     </row>
     <row r="494">
       <c r="A494">
@@ -15680,12 +12718,6 @@
       <c r="G494">
         <v>1.4</v>
       </c>
-      <c r="H494">
-        <v>85.8</v>
-      </c>
-      <c r="I494">
-        <v>0</v>
-      </c>
     </row>
     <row r="495">
       <c r="A495">
@@ -15711,12 +12743,6 @@
       <c r="G495">
         <v>1.1</v>
       </c>
-      <c r="H495">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="I495">
-        <v>0</v>
-      </c>
     </row>
     <row r="496">
       <c r="A496">
@@ -15742,12 +12768,6 @@
       <c r="G496">
         <v>0</v>
       </c>
-      <c r="H496">
-        <v>62.3</v>
-      </c>
-      <c r="I496">
-        <v>0</v>
-      </c>
     </row>
     <row r="497">
       <c r="A497">
@@ -15773,12 +12793,6 @@
       <c r="G497">
         <v>0.2</v>
       </c>
-      <c r="H497">
-        <v>62.4</v>
-      </c>
-      <c r="I497">
-        <v>0</v>
-      </c>
     </row>
     <row r="498">
       <c r="A498">
@@ -15804,12 +12818,6 @@
       <c r="G498">
         <v>2.5</v>
       </c>
-      <c r="H498">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="I498">
-        <v>0</v>
-      </c>
     </row>
     <row r="499">
       <c r="A499">
@@ -15835,12 +12843,6 @@
       <c r="G499">
         <v>0</v>
       </c>
-      <c r="H499">
-        <v>88.5</v>
-      </c>
-      <c r="I499">
-        <v>0</v>
-      </c>
     </row>
     <row r="500">
       <c r="A500">
@@ -15866,12 +12868,6 @@
       <c r="G500">
         <v>0</v>
       </c>
-      <c r="H500">
-        <v>70.3</v>
-      </c>
-      <c r="I500">
-        <v>0</v>
-      </c>
     </row>
     <row r="501">
       <c r="A501">
@@ -15897,12 +12893,6 @@
       <c r="G501">
         <v>0.8</v>
       </c>
-      <c r="H501">
-        <v>67.5</v>
-      </c>
-      <c r="I501">
-        <v>0</v>
-      </c>
     </row>
     <row r="502">
       <c r="A502">
@@ -15928,12 +12918,6 @@
       <c r="G502">
         <v>0.7</v>
       </c>
-      <c r="H502">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="I502">
-        <v>0</v>
-      </c>
     </row>
     <row r="503">
       <c r="A503">
@@ -15959,12 +12943,6 @@
       <c r="G503">
         <v>0</v>
       </c>
-      <c r="H503">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="I503">
-        <v>0</v>
-      </c>
     </row>
     <row r="504">
       <c r="A504">
@@ -15990,12 +12968,6 @@
       <c r="G504">
         <v>0</v>
       </c>
-      <c r="H504">
-        <v>65</v>
-      </c>
-      <c r="I504">
-        <v>0</v>
-      </c>
     </row>
     <row r="505">
       <c r="A505">
@@ -16021,12 +12993,6 @@
       <c r="G505">
         <v>0</v>
       </c>
-      <c r="H505">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="I505">
-        <v>0</v>
-      </c>
     </row>
     <row r="506">
       <c r="A506">
@@ -16052,12 +13018,6 @@
       <c r="G506">
         <v>1.5</v>
       </c>
-      <c r="H506">
-        <v>76</v>
-      </c>
-      <c r="I506">
-        <v>0</v>
-      </c>
     </row>
     <row r="507">
       <c r="A507">
@@ -16083,12 +13043,6 @@
       <c r="G507">
         <v>0.3</v>
       </c>
-      <c r="H507">
-        <v>90.3</v>
-      </c>
-      <c r="I507">
-        <v>0</v>
-      </c>
     </row>
     <row r="508">
       <c r="A508">
@@ -16114,12 +13068,6 @@
       <c r="G508">
         <v>0</v>
       </c>
-      <c r="H508">
-        <v>78.5</v>
-      </c>
-      <c r="I508">
-        <v>0</v>
-      </c>
     </row>
     <row r="509">
       <c r="A509">
@@ -16145,12 +13093,6 @@
       <c r="G509">
         <v>10.2</v>
       </c>
-      <c r="H509">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="I509">
-        <v>0</v>
-      </c>
     </row>
     <row r="510">
       <c r="A510">
@@ -16176,12 +13118,6 @@
       <c r="G510">
         <v>9.5</v>
       </c>
-      <c r="H510">
-        <v>85.8</v>
-      </c>
-      <c r="I510">
-        <v>0</v>
-      </c>
     </row>
     <row r="511">
       <c r="A511">
@@ -16207,12 +13143,6 @@
       <c r="G511">
         <v>3.3</v>
       </c>
-      <c r="H511">
-        <v>94.3</v>
-      </c>
-      <c r="I511">
-        <v>0</v>
-      </c>
     </row>
     <row r="512">
       <c r="A512">
@@ -16238,12 +13168,6 @@
       <c r="G512">
         <v>0.1</v>
       </c>
-      <c r="H512">
-        <v>75.5</v>
-      </c>
-      <c r="I512">
-        <v>0</v>
-      </c>
     </row>
     <row r="513">
       <c r="A513">
@@ -16269,12 +13193,6 @@
       <c r="G513">
         <v>0</v>
       </c>
-      <c r="H513">
-        <v>72.3</v>
-      </c>
-      <c r="I513">
-        <v>0</v>
-      </c>
     </row>
     <row r="514">
       <c r="A514">
@@ -16300,12 +13218,6 @@
       <c r="G514">
         <v>0</v>
       </c>
-      <c r="H514">
-        <v>63.1</v>
-      </c>
-      <c r="I514">
-        <v>0</v>
-      </c>
     </row>
     <row r="515">
       <c r="A515">
@@ -16331,12 +13243,6 @@
       <c r="G515">
         <v>0</v>
       </c>
-      <c r="H515">
-        <v>59.4</v>
-      </c>
-      <c r="I515">
-        <v>0</v>
-      </c>
     </row>
     <row r="516">
       <c r="A516">
@@ -16362,12 +13268,6 @@
       <c r="G516">
         <v>24.5</v>
       </c>
-      <c r="H516">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="I516">
-        <v>0</v>
-      </c>
     </row>
     <row r="517">
       <c r="A517">
@@ -16393,12 +13293,6 @@
       <c r="G517">
         <v>2</v>
       </c>
-      <c r="H517">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="I517">
-        <v>0</v>
-      </c>
     </row>
     <row r="518">
       <c r="A518">
@@ -16424,12 +13318,6 @@
       <c r="G518">
         <v>0</v>
       </c>
-      <c r="H518">
-        <v>56.9</v>
-      </c>
-      <c r="I518">
-        <v>0</v>
-      </c>
     </row>
     <row r="519">
       <c r="A519">
@@ -16455,12 +13343,6 @@
       <c r="G519">
         <v>0</v>
       </c>
-      <c r="H519">
-        <v>47.9</v>
-      </c>
-      <c r="I519">
-        <v>0</v>
-      </c>
     </row>
     <row r="520">
       <c r="A520">
@@ -16486,12 +13368,6 @@
       <c r="G520">
         <v>0</v>
       </c>
-      <c r="H520">
-        <v>56.4</v>
-      </c>
-      <c r="I520">
-        <v>0</v>
-      </c>
     </row>
     <row r="521">
       <c r="A521">
@@ -16517,12 +13393,6 @@
       <c r="G521">
         <v>17.8</v>
       </c>
-      <c r="H521">
-        <v>68.8</v>
-      </c>
-      <c r="I521">
-        <v>0</v>
-      </c>
     </row>
     <row r="522">
       <c r="A522">
@@ -16548,12 +13418,6 @@
       <c r="G522">
         <v>0.1</v>
       </c>
-      <c r="H522">
-        <v>86.8</v>
-      </c>
-      <c r="I522">
-        <v>0</v>
-      </c>
     </row>
     <row r="523">
       <c r="A523">
@@ -16579,12 +13443,6 @@
       <c r="G523">
         <v>2.6</v>
       </c>
-      <c r="H523">
-        <v>69.3</v>
-      </c>
-      <c r="I523">
-        <v>0</v>
-      </c>
     </row>
     <row r="524">
       <c r="A524">
@@ -16610,12 +13468,6 @@
       <c r="G524">
         <v>0</v>
       </c>
-      <c r="H524">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="I524">
-        <v>0</v>
-      </c>
     </row>
     <row r="525">
       <c r="A525">
@@ -16641,12 +13493,6 @@
       <c r="G525">
         <v>0</v>
       </c>
-      <c r="H525">
-        <v>56.9</v>
-      </c>
-      <c r="I525">
-        <v>0</v>
-      </c>
     </row>
     <row r="526">
       <c r="A526">
@@ -16672,12 +13518,6 @@
       <c r="G526">
         <v>0</v>
       </c>
-      <c r="H526">
-        <v>60.9</v>
-      </c>
-      <c r="I526">
-        <v>0</v>
-      </c>
     </row>
     <row r="527">
       <c r="A527">
@@ -16703,12 +13543,6 @@
       <c r="G527">
         <v>16.7</v>
       </c>
-      <c r="H527">
-        <v>81.5</v>
-      </c>
-      <c r="I527">
-        <v>0</v>
-      </c>
     </row>
     <row r="528">
       <c r="A528">
@@ -16734,12 +13568,6 @@
       <c r="G528">
         <v>0</v>
       </c>
-      <c r="H528">
-        <v>76.59999999999999</v>
-      </c>
-      <c r="I528">
-        <v>0</v>
-      </c>
     </row>
     <row r="529">
       <c r="A529">
@@ -16765,12 +13593,6 @@
       <c r="G529">
         <v>2.2</v>
       </c>
-      <c r="H529">
-        <v>67.8</v>
-      </c>
-      <c r="I529">
-        <v>0</v>
-      </c>
     </row>
     <row r="530">
       <c r="A530">
@@ -16796,12 +13618,6 @@
       <c r="G530">
         <v>0</v>
       </c>
-      <c r="H530">
-        <v>66.3</v>
-      </c>
-      <c r="I530">
-        <v>0</v>
-      </c>
     </row>
     <row r="531">
       <c r="A531">
@@ -16827,12 +13643,6 @@
       <c r="G531">
         <v>0</v>
       </c>
-      <c r="H531">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="I531">
-        <v>0</v>
-      </c>
     </row>
     <row r="532">
       <c r="A532">
@@ -16858,12 +13668,6 @@
       <c r="G532">
         <v>0</v>
       </c>
-      <c r="H532">
-        <v>63.9</v>
-      </c>
-      <c r="I532">
-        <v>0</v>
-      </c>
     </row>
     <row r="533">
       <c r="A533">
@@ -16889,12 +13693,6 @@
       <c r="G533">
         <v>15.1</v>
       </c>
-      <c r="H533">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="I533">
-        <v>0</v>
-      </c>
     </row>
     <row r="534">
       <c r="A534">
@@ -16920,12 +13718,6 @@
       <c r="G534">
         <v>21.7</v>
       </c>
-      <c r="H534">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="I534">
-        <v>0</v>
-      </c>
     </row>
     <row r="535">
       <c r="A535">
@@ -16951,12 +13743,6 @@
       <c r="G535">
         <v>0.1</v>
       </c>
-      <c r="H535">
-        <v>91.59999999999999</v>
-      </c>
-      <c r="I535">
-        <v>0</v>
-      </c>
     </row>
     <row r="536">
       <c r="A536">
@@ -16982,12 +13768,6 @@
       <c r="G536">
         <v>0</v>
       </c>
-      <c r="H536">
-        <v>71.5</v>
-      </c>
-      <c r="I536">
-        <v>0</v>
-      </c>
     </row>
     <row r="537">
       <c r="A537">
@@ -17013,12 +13793,6 @@
       <c r="G537">
         <v>0</v>
       </c>
-      <c r="H537">
-        <v>59.3</v>
-      </c>
-      <c r="I537">
-        <v>0</v>
-      </c>
     </row>
     <row r="538">
       <c r="A538">
@@ -17044,12 +13818,6 @@
       <c r="G538">
         <v>0</v>
       </c>
-      <c r="H538">
-        <v>59.9</v>
-      </c>
-      <c r="I538">
-        <v>0</v>
-      </c>
     </row>
     <row r="539">
       <c r="A539">
@@ -17075,12 +13843,6 @@
       <c r="G539">
         <v>13</v>
       </c>
-      <c r="H539">
-        <v>55.4</v>
-      </c>
-      <c r="I539">
-        <v>0</v>
-      </c>
     </row>
     <row r="540">
       <c r="A540">
@@ -17106,12 +13868,6 @@
       <c r="G540">
         <v>0</v>
       </c>
-      <c r="H540">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="I540">
-        <v>0</v>
-      </c>
     </row>
     <row r="541">
       <c r="A541">
@@ -17137,12 +13893,6 @@
       <c r="G541">
         <v>0</v>
       </c>
-      <c r="H541">
-        <v>58.4</v>
-      </c>
-      <c r="I541">
-        <v>0</v>
-      </c>
     </row>
     <row r="542">
       <c r="A542">
@@ -17168,12 +13918,6 @@
       <c r="G542">
         <v>0.5</v>
       </c>
-      <c r="H542">
-        <v>53.8</v>
-      </c>
-      <c r="I542">
-        <v>0</v>
-      </c>
     </row>
     <row r="543">
       <c r="A543">
@@ -17199,12 +13943,6 @@
       <c r="G543">
         <v>0</v>
       </c>
-      <c r="H543">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="I543">
-        <v>0</v>
-      </c>
     </row>
     <row r="544">
       <c r="A544">
@@ -17230,12 +13968,6 @@
       <c r="G544">
         <v>0</v>
       </c>
-      <c r="H544">
-        <v>59.5</v>
-      </c>
-      <c r="I544">
-        <v>0</v>
-      </c>
     </row>
     <row r="545">
       <c r="A545">
@@ -17261,12 +13993,6 @@
       <c r="G545">
         <v>13.3</v>
       </c>
-      <c r="H545">
-        <v>54</v>
-      </c>
-      <c r="I545">
-        <v>0</v>
-      </c>
     </row>
     <row r="546">
       <c r="A546">
@@ -17292,12 +14018,6 @@
       <c r="G546">
         <v>1.6</v>
       </c>
-      <c r="H546">
-        <v>55.6</v>
-      </c>
-      <c r="I546">
-        <v>0</v>
-      </c>
     </row>
     <row r="547">
       <c r="A547">
@@ -17323,12 +14043,6 @@
       <c r="G547">
         <v>7.1</v>
       </c>
-      <c r="H547">
-        <v>55.8</v>
-      </c>
-      <c r="I547">
-        <v>0</v>
-      </c>
     </row>
     <row r="548">
       <c r="A548">
@@ -17354,12 +14068,6 @@
       <c r="G548">
         <v>12</v>
       </c>
-      <c r="H548">
-        <v>80</v>
-      </c>
-      <c r="I548">
-        <v>0</v>
-      </c>
     </row>
     <row r="549">
       <c r="A549">
@@ -17385,12 +14093,6 @@
       <c r="G549">
         <v>3.6</v>
       </c>
-      <c r="H549">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="I549">
-        <v>0</v>
-      </c>
     </row>
     <row r="550">
       <c r="A550">
@@ -17416,12 +14118,6 @@
       <c r="G550">
         <v>0</v>
       </c>
-      <c r="H550">
-        <v>72.5</v>
-      </c>
-      <c r="I550">
-        <v>0</v>
-      </c>
     </row>
     <row r="551">
       <c r="A551">
@@ -17447,12 +14143,6 @@
       <c r="G551">
         <v>0.2</v>
       </c>
-      <c r="H551">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="I551">
-        <v>0</v>
-      </c>
     </row>
     <row r="552">
       <c r="A552">
@@ -17478,12 +14168,6 @@
       <c r="G552">
         <v>8.1</v>
       </c>
-      <c r="H552">
-        <v>66.8</v>
-      </c>
-      <c r="I552">
-        <v>0</v>
-      </c>
     </row>
     <row r="553">
       <c r="A553">
@@ -17509,12 +14193,6 @@
       <c r="G553">
         <v>0</v>
       </c>
-      <c r="H553">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="I553">
-        <v>0</v>
-      </c>
     </row>
     <row r="554">
       <c r="A554">
@@ -17540,12 +14218,6 @@
       <c r="G554">
         <v>5.6</v>
       </c>
-      <c r="H554">
-        <v>83</v>
-      </c>
-      <c r="I554">
-        <v>0</v>
-      </c>
     </row>
     <row r="555">
       <c r="A555">
@@ -17571,12 +14243,6 @@
       <c r="G555">
         <v>1.5</v>
       </c>
-      <c r="H555">
-        <v>80.09999999999999</v>
-      </c>
-      <c r="I555">
-        <v>0</v>
-      </c>
     </row>
     <row r="556">
       <c r="A556">
@@ -17602,12 +14268,6 @@
       <c r="G556">
         <v>0.8</v>
       </c>
-      <c r="H556">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="I556">
-        <v>0</v>
-      </c>
     </row>
     <row r="557">
       <c r="A557">
@@ -17633,12 +14293,6 @@
       <c r="G557">
         <v>6.5</v>
       </c>
-      <c r="H557">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="I557">
-        <v>0</v>
-      </c>
     </row>
     <row r="558">
       <c r="A558">
@@ -17664,12 +14318,6 @@
       <c r="G558">
         <v>6.8</v>
       </c>
-      <c r="H558">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="I558">
-        <v>0</v>
-      </c>
     </row>
     <row r="559">
       <c r="A559">
@@ -17695,12 +14343,6 @@
       <c r="G559">
         <v>1.5</v>
       </c>
-      <c r="H559">
-        <v>58</v>
-      </c>
-      <c r="I559">
-        <v>0</v>
-      </c>
     </row>
     <row r="560">
       <c r="A560">
@@ -17726,12 +14368,6 @@
       <c r="G560">
         <v>0.5</v>
       </c>
-      <c r="H560">
-        <v>76.59999999999999</v>
-      </c>
-      <c r="I560">
-        <v>0</v>
-      </c>
     </row>
     <row r="561">
       <c r="A561">
@@ -17757,12 +14393,6 @@
       <c r="G561">
         <v>7.8</v>
       </c>
-      <c r="H561">
-        <v>74.5</v>
-      </c>
-      <c r="I561">
-        <v>0</v>
-      </c>
     </row>
     <row r="562">
       <c r="A562">
@@ -17788,12 +14418,6 @@
       <c r="G562">
         <v>0</v>
       </c>
-      <c r="H562">
-        <v>81.8</v>
-      </c>
-      <c r="I562">
-        <v>0</v>
-      </c>
     </row>
     <row r="563">
       <c r="A563">
@@ -17819,12 +14443,6 @@
       <c r="G563">
         <v>0</v>
       </c>
-      <c r="H563">
-        <v>70.8</v>
-      </c>
-      <c r="I563">
-        <v>0</v>
-      </c>
     </row>
     <row r="564">
       <c r="A564">
@@ -17850,12 +14468,6 @@
       <c r="G564">
         <v>0</v>
       </c>
-      <c r="H564">
-        <v>66</v>
-      </c>
-      <c r="I564">
-        <v>0</v>
-      </c>
     </row>
     <row r="565">
       <c r="A565">
@@ -17881,12 +14493,6 @@
       <c r="G565">
         <v>0</v>
       </c>
-      <c r="H565">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="I565">
-        <v>0</v>
-      </c>
     </row>
     <row r="566">
       <c r="A566">
@@ -17912,12 +14518,6 @@
       <c r="G566">
         <v>0</v>
       </c>
-      <c r="H566">
-        <v>62</v>
-      </c>
-      <c r="I566">
-        <v>0</v>
-      </c>
     </row>
     <row r="567">
       <c r="A567">
@@ -17943,12 +14543,6 @@
       <c r="G567">
         <v>0</v>
       </c>
-      <c r="H567">
-        <v>58.9</v>
-      </c>
-      <c r="I567">
-        <v>0</v>
-      </c>
     </row>
     <row r="568">
       <c r="A568">
@@ -17974,12 +14568,6 @@
       <c r="G568">
         <v>0</v>
       </c>
-      <c r="H568">
-        <v>74.3</v>
-      </c>
-      <c r="I568">
-        <v>0</v>
-      </c>
     </row>
     <row r="569">
       <c r="A569">
@@ -18005,12 +14593,6 @@
       <c r="G569">
         <v>0</v>
       </c>
-      <c r="H569">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="I569">
-        <v>0</v>
-      </c>
     </row>
     <row r="570">
       <c r="A570">
@@ -18036,12 +14618,6 @@
       <c r="G570">
         <v>7.8</v>
       </c>
-      <c r="H570">
-        <v>79.59999999999999</v>
-      </c>
-      <c r="I570">
-        <v>0</v>
-      </c>
     </row>
     <row r="571">
       <c r="A571">
@@ -18067,12 +14643,6 @@
       <c r="G571">
         <v>1.7</v>
       </c>
-      <c r="H571">
-        <v>75.3</v>
-      </c>
-      <c r="I571">
-        <v>0</v>
-      </c>
     </row>
     <row r="572">
       <c r="A572">
@@ -18098,12 +14668,6 @@
       <c r="G572">
         <v>8.699999999999999</v>
       </c>
-      <c r="H572">
-        <v>90.59999999999999</v>
-      </c>
-      <c r="I572">
-        <v>0</v>
-      </c>
     </row>
     <row r="573">
       <c r="A573">
@@ -18129,12 +14693,6 @@
       <c r="G573">
         <v>0</v>
       </c>
-      <c r="H573">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="I573">
-        <v>0</v>
-      </c>
     </row>
     <row r="574">
       <c r="A574">
@@ -18160,12 +14718,6 @@
       <c r="G574">
         <v>8</v>
       </c>
-      <c r="H574">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="I574">
-        <v>0</v>
-      </c>
     </row>
     <row r="575">
       <c r="A575">
@@ -18191,12 +14743,6 @@
       <c r="G575">
         <v>12.5</v>
       </c>
-      <c r="H575">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="I575">
-        <v>0</v>
-      </c>
     </row>
     <row r="576">
       <c r="A576">
@@ -18222,12 +14768,6 @@
       <c r="G576">
         <v>0</v>
       </c>
-      <c r="H576">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="I576">
-        <v>0</v>
-      </c>
     </row>
     <row r="577">
       <c r="A577">
@@ -18253,12 +14793,6 @@
       <c r="G577">
         <v>0</v>
       </c>
-      <c r="H577">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="I577">
-        <v>0</v>
-      </c>
     </row>
     <row r="578">
       <c r="A578">
@@ -18284,12 +14818,6 @@
       <c r="G578">
         <v>0</v>
       </c>
-      <c r="H578">
-        <v>66.3</v>
-      </c>
-      <c r="I578">
-        <v>0</v>
-      </c>
     </row>
     <row r="579">
       <c r="A579">
@@ -18315,12 +14843,6 @@
       <c r="G579">
         <v>0</v>
       </c>
-      <c r="H579">
-        <v>58.1</v>
-      </c>
-      <c r="I579">
-        <v>0</v>
-      </c>
     </row>
     <row r="580">
       <c r="A580">
@@ -18346,12 +14868,6 @@
       <c r="G580">
         <v>5.5</v>
       </c>
-      <c r="H580">
-        <v>60.5</v>
-      </c>
-      <c r="I580">
-        <v>0</v>
-      </c>
     </row>
     <row r="581">
       <c r="A581">
@@ -18377,12 +14893,6 @@
       <c r="G581">
         <v>0.3</v>
       </c>
-      <c r="H581">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="I581">
-        <v>0</v>
-      </c>
     </row>
     <row r="582">
       <c r="A582">
@@ -18408,12 +14918,6 @@
       <c r="G582">
         <v>0.1</v>
       </c>
-      <c r="H582">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="I582">
-        <v>0</v>
-      </c>
     </row>
     <row r="583">
       <c r="A583">
@@ -18439,12 +14943,6 @@
       <c r="G583">
         <v>0</v>
       </c>
-      <c r="H583">
-        <v>61</v>
-      </c>
-      <c r="I583">
-        <v>0</v>
-      </c>
     </row>
     <row r="584">
       <c r="A584">
@@ -18470,12 +14968,6 @@
       <c r="G584">
         <v>12</v>
       </c>
-      <c r="H584">
-        <v>84.40000000000001</v>
-      </c>
-      <c r="I584">
-        <v>0</v>
-      </c>
     </row>
     <row r="585">
       <c r="A585">
@@ -18501,12 +14993,6 @@
       <c r="G585">
         <v>5.9</v>
       </c>
-      <c r="H585">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="I585">
-        <v>0</v>
-      </c>
     </row>
     <row r="586">
       <c r="A586">
@@ -18532,12 +15018,6 @@
       <c r="G586">
         <v>0</v>
       </c>
-      <c r="H586">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="I586">
-        <v>0</v>
-      </c>
     </row>
     <row r="587">
       <c r="A587">
@@ -18563,12 +15043,6 @@
       <c r="G587">
         <v>0</v>
       </c>
-      <c r="H587">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="I587">
-        <v>0</v>
-      </c>
     </row>
     <row r="588">
       <c r="A588">
@@ -18594,12 +15068,6 @@
       <c r="G588">
         <v>3</v>
       </c>
-      <c r="H588">
-        <v>62</v>
-      </c>
-      <c r="I588">
-        <v>0</v>
-      </c>
     </row>
     <row r="589">
       <c r="A589">
@@ -18625,12 +15093,6 @@
       <c r="G589">
         <v>0</v>
       </c>
-      <c r="H589">
-        <v>55.9</v>
-      </c>
-      <c r="I589">
-        <v>0</v>
-      </c>
     </row>
     <row r="590">
       <c r="A590">
@@ -18656,12 +15118,6 @@
       <c r="G590">
         <v>8.9</v>
       </c>
-      <c r="H590">
-        <v>84</v>
-      </c>
-      <c r="I590">
-        <v>0</v>
-      </c>
     </row>
     <row r="591">
       <c r="A591">
@@ -18687,12 +15143,6 @@
       <c r="G591">
         <v>0.5</v>
       </c>
-      <c r="H591">
-        <v>82.8</v>
-      </c>
-      <c r="I591">
-        <v>0</v>
-      </c>
     </row>
     <row r="592">
       <c r="A592">
@@ -18718,12 +15168,6 @@
       <c r="G592">
         <v>0</v>
       </c>
-      <c r="H592">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="I592">
-        <v>0</v>
-      </c>
     </row>
     <row r="593">
       <c r="A593">
@@ -18749,12 +15193,6 @@
       <c r="G593">
         <v>0</v>
       </c>
-      <c r="H593">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="I593">
-        <v>0</v>
-      </c>
     </row>
     <row r="594">
       <c r="A594">
@@ -18780,12 +15218,6 @@
       <c r="G594">
         <v>0</v>
       </c>
-      <c r="H594">
-        <v>64</v>
-      </c>
-      <c r="I594">
-        <v>0</v>
-      </c>
     </row>
     <row r="595">
       <c r="A595">
@@ -18811,12 +15243,6 @@
       <c r="G595">
         <v>5.4</v>
       </c>
-      <c r="H595">
-        <v>82</v>
-      </c>
-      <c r="I595">
-        <v>0</v>
-      </c>
     </row>
     <row r="596">
       <c r="A596">
@@ -18842,12 +15268,6 @@
       <c r="G596">
         <v>0</v>
       </c>
-      <c r="H596">
-        <v>68.5</v>
-      </c>
-      <c r="I596">
-        <v>0</v>
-      </c>
     </row>
     <row r="597">
       <c r="A597">
@@ -18873,12 +15293,6 @@
       <c r="G597">
         <v>56.7</v>
       </c>
-      <c r="H597">
-        <v>67.8</v>
-      </c>
-      <c r="I597">
-        <v>0</v>
-      </c>
     </row>
     <row r="598">
       <c r="A598">
@@ -18904,12 +15318,6 @@
       <c r="G598">
         <v>37.3</v>
       </c>
-      <c r="H598">
-        <v>93.8</v>
-      </c>
-      <c r="I598">
-        <v>0</v>
-      </c>
     </row>
     <row r="599">
       <c r="A599">
@@ -18935,12 +15343,6 @@
       <c r="G599">
         <v>2.4</v>
       </c>
-      <c r="H599">
-        <v>83.40000000000001</v>
-      </c>
-      <c r="I599">
-        <v>0</v>
-      </c>
     </row>
     <row r="600">
       <c r="A600">
@@ -18966,12 +15368,6 @@
       <c r="G600">
         <v>2.1</v>
       </c>
-      <c r="H600">
-        <v>80.5</v>
-      </c>
-      <c r="I600">
-        <v>0</v>
-      </c>
     </row>
     <row r="601">
       <c r="A601">
@@ -18997,12 +15393,6 @@
       <c r="G601">
         <v>0</v>
       </c>
-      <c r="H601">
-        <v>82.09999999999999</v>
-      </c>
-      <c r="I601">
-        <v>0</v>
-      </c>
     </row>
     <row r="602">
       <c r="A602">
@@ -19028,12 +15418,6 @@
       <c r="G602">
         <v>0</v>
       </c>
-      <c r="H602">
-        <v>65.8</v>
-      </c>
-      <c r="I602">
-        <v>0</v>
-      </c>
     </row>
     <row r="603">
       <c r="A603">
@@ -19059,12 +15443,6 @@
       <c r="G603">
         <v>0</v>
       </c>
-      <c r="H603">
-        <v>65.59999999999999</v>
-      </c>
-      <c r="I603">
-        <v>0</v>
-      </c>
     </row>
     <row r="604">
       <c r="A604">
@@ -19090,12 +15468,6 @@
       <c r="G604">
         <v>2.9</v>
       </c>
-      <c r="H604">
-        <v>78.3</v>
-      </c>
-      <c r="I604">
-        <v>0</v>
-      </c>
     </row>
     <row r="605">
       <c r="A605">
@@ -19121,12 +15493,6 @@
       <c r="G605">
         <v>4.3</v>
       </c>
-      <c r="H605">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="I605">
-        <v>0</v>
-      </c>
     </row>
     <row r="606">
       <c r="A606">
@@ -19152,12 +15518,6 @@
       <c r="G606">
         <v>0</v>
       </c>
-      <c r="H606">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="I606">
-        <v>0</v>
-      </c>
     </row>
     <row r="607">
       <c r="A607">
@@ -19183,12 +15543,6 @@
       <c r="G607">
         <v>0</v>
       </c>
-      <c r="H607">
-        <v>76.8</v>
-      </c>
-      <c r="I607">
-        <v>0</v>
-      </c>
     </row>
     <row r="608">
       <c r="A608">
@@ -19214,12 +15568,6 @@
       <c r="G608">
         <v>0</v>
       </c>
-      <c r="H608">
-        <v>73.8</v>
-      </c>
-      <c r="I608">
-        <v>0</v>
-      </c>
     </row>
     <row r="609">
       <c r="A609">
@@ -19245,12 +15593,6 @@
       <c r="G609">
         <v>0</v>
       </c>
-      <c r="H609">
-        <v>67.5</v>
-      </c>
-      <c r="I609">
-        <v>0</v>
-      </c>
     </row>
     <row r="610">
       <c r="A610">
@@ -19276,12 +15618,6 @@
       <c r="G610">
         <v>0</v>
       </c>
-      <c r="H610">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="I610">
-        <v>0</v>
-      </c>
     </row>
     <row r="611">
       <c r="A611">
@@ -19307,12 +15643,6 @@
       <c r="G611">
         <v>19.9</v>
       </c>
-      <c r="H611">
-        <v>93</v>
-      </c>
-      <c r="I611">
-        <v>0</v>
-      </c>
     </row>
     <row r="612">
       <c r="A612">
@@ -19338,12 +15668,6 @@
       <c r="G612">
         <v>14.2</v>
       </c>
-      <c r="H612">
-        <v>94.5</v>
-      </c>
-      <c r="I612">
-        <v>0</v>
-      </c>
     </row>
     <row r="613">
       <c r="A613">
@@ -19369,12 +15693,6 @@
       <c r="G613">
         <v>4.6</v>
       </c>
-      <c r="H613">
-        <v>87.8</v>
-      </c>
-      <c r="I613">
-        <v>0</v>
-      </c>
     </row>
     <row r="614">
       <c r="A614">
@@ -19400,12 +15718,6 @@
       <c r="G614">
         <v>7.7</v>
       </c>
-      <c r="H614">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="I614">
-        <v>0</v>
-      </c>
     </row>
     <row r="615">
       <c r="A615">
@@ -19431,12 +15743,6 @@
       <c r="G615">
         <v>1.6</v>
       </c>
-      <c r="H615">
-        <v>85.09999999999999</v>
-      </c>
-      <c r="I615">
-        <v>0</v>
-      </c>
     </row>
     <row r="616">
       <c r="A616">
@@ -19462,12 +15768,6 @@
       <c r="G616">
         <v>0</v>
       </c>
-      <c r="H616">
-        <v>72.40000000000001</v>
-      </c>
-      <c r="I616">
-        <v>0</v>
-      </c>
     </row>
     <row r="617">
       <c r="A617">
@@ -19493,12 +15793,6 @@
       <c r="G617">
         <v>0</v>
       </c>
-      <c r="H617">
-        <v>72</v>
-      </c>
-      <c r="I617">
-        <v>0</v>
-      </c>
     </row>
     <row r="618">
       <c r="A618">
@@ -19524,12 +15818,6 @@
       <c r="G618">
         <v>0</v>
       </c>
-      <c r="H618">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="I618">
-        <v>0</v>
-      </c>
     </row>
     <row r="619">
       <c r="A619">
@@ -19555,12 +15843,6 @@
       <c r="G619">
         <v>0</v>
       </c>
-      <c r="H619">
-        <v>57.9</v>
-      </c>
-      <c r="I619">
-        <v>0</v>
-      </c>
     </row>
     <row r="620">
       <c r="A620">
@@ -19586,12 +15868,6 @@
       <c r="G620">
         <v>17.6</v>
       </c>
-      <c r="H620">
-        <v>54</v>
-      </c>
-      <c r="I620">
-        <v>0</v>
-      </c>
     </row>
     <row r="621">
       <c r="A621">
@@ -19617,12 +15893,6 @@
       <c r="G621">
         <v>15.9</v>
       </c>
-      <c r="H621">
-        <v>92.09999999999999</v>
-      </c>
-      <c r="I621">
-        <v>0</v>
-      </c>
     </row>
     <row r="622">
       <c r="A622">
@@ -19648,12 +15918,6 @@
       <c r="G622">
         <v>0</v>
       </c>
-      <c r="H622">
-        <v>63.9</v>
-      </c>
-      <c r="I622">
-        <v>0</v>
-      </c>
     </row>
     <row r="623">
       <c r="A623">
@@ -19679,12 +15943,6 @@
       <c r="G623">
         <v>3.1</v>
       </c>
-      <c r="H623">
-        <v>52.9</v>
-      </c>
-      <c r="I623">
-        <v>0</v>
-      </c>
     </row>
     <row r="624">
       <c r="A624">
@@ -19710,12 +15968,6 @@
       <c r="G624">
         <v>2.6</v>
       </c>
-      <c r="H624">
-        <v>73.8</v>
-      </c>
-      <c r="I624">
-        <v>0</v>
-      </c>
     </row>
     <row r="625">
       <c r="A625">
@@ -19741,12 +15993,6 @@
       <c r="G625">
         <v>4.2</v>
       </c>
-      <c r="H625">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="I625">
-        <v>0</v>
-      </c>
     </row>
     <row r="626">
       <c r="A626">
@@ -19772,12 +16018,6 @@
       <c r="G626">
         <v>16.5</v>
       </c>
-      <c r="H626">
-        <v>86.90000000000001</v>
-      </c>
-      <c r="I626">
-        <v>0</v>
-      </c>
     </row>
     <row r="627">
       <c r="A627">
@@ -19803,12 +16043,6 @@
       <c r="G627">
         <v>0</v>
       </c>
-      <c r="H627">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="I627">
-        <v>0</v>
-      </c>
     </row>
     <row r="628">
       <c r="A628">
@@ -19834,12 +16068,6 @@
       <c r="G628">
         <v>5.1</v>
       </c>
-      <c r="H628">
-        <v>92.09999999999999</v>
-      </c>
-      <c r="I628">
-        <v>0</v>
-      </c>
     </row>
     <row r="629">
       <c r="A629">
@@ -19865,12 +16093,6 @@
       <c r="G629">
         <v>23</v>
       </c>
-      <c r="H629">
-        <v>96</v>
-      </c>
-      <c r="I629">
-        <v>0</v>
-      </c>
     </row>
     <row r="630">
       <c r="A630">
@@ -19896,12 +16118,6 @@
       <c r="G630">
         <v>56</v>
       </c>
-      <c r="H630">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="I630">
-        <v>0</v>
-      </c>
     </row>
     <row r="631">
       <c r="A631">
@@ -19927,12 +16143,6 @@
       <c r="G631">
         <v>8.699999999999999</v>
       </c>
-      <c r="H631">
-        <v>94.8</v>
-      </c>
-      <c r="I631">
-        <v>0</v>
-      </c>
     </row>
     <row r="632">
       <c r="A632">
@@ -19958,12 +16168,6 @@
       <c r="G632">
         <v>8.1</v>
       </c>
-      <c r="H632">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="I632">
-        <v>0</v>
-      </c>
     </row>
     <row r="633">
       <c r="A633">
@@ -19989,12 +16193,6 @@
       <c r="G633">
         <v>0</v>
       </c>
-      <c r="H633">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="I633">
-        <v>0</v>
-      </c>
     </row>
     <row r="634">
       <c r="A634">
@@ -20020,12 +16218,6 @@
       <c r="G634">
         <v>0</v>
       </c>
-      <c r="H634">
-        <v>88.59999999999999</v>
-      </c>
-      <c r="I634">
-        <v>0</v>
-      </c>
     </row>
     <row r="635">
       <c r="A635">
@@ -20051,12 +16243,6 @@
       <c r="G635">
         <v>0</v>
       </c>
-      <c r="H635">
-        <v>85</v>
-      </c>
-      <c r="I635">
-        <v>0</v>
-      </c>
     </row>
     <row r="636">
       <c r="A636">
@@ -20082,12 +16268,6 @@
       <c r="G636">
         <v>0</v>
       </c>
-      <c r="H636">
-        <v>80.09999999999999</v>
-      </c>
-      <c r="I636">
-        <v>0</v>
-      </c>
     </row>
     <row r="637">
       <c r="A637">
@@ -20113,12 +16293,6 @@
       <c r="G637">
         <v>0</v>
       </c>
-      <c r="H637">
-        <v>81.8</v>
-      </c>
-      <c r="I637">
-        <v>0</v>
-      </c>
     </row>
     <row r="638">
       <c r="A638">
@@ -20144,12 +16318,6 @@
       <c r="G638">
         <v>0</v>
       </c>
-      <c r="H638">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="I638">
-        <v>0</v>
-      </c>
     </row>
     <row r="639">
       <c r="A639">
@@ -20175,12 +16343,6 @@
       <c r="G639">
         <v>0</v>
       </c>
-      <c r="H639">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="I639">
-        <v>0</v>
-      </c>
     </row>
     <row r="640">
       <c r="A640">
@@ -20206,12 +16368,6 @@
       <c r="G640">
         <v>0</v>
       </c>
-      <c r="H640">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="I640">
-        <v>0</v>
-      </c>
     </row>
     <row r="641">
       <c r="A641">
@@ -20237,12 +16393,6 @@
       <c r="G641">
         <v>0.7</v>
       </c>
-      <c r="H641">
-        <v>76.40000000000001</v>
-      </c>
-      <c r="I641">
-        <v>0</v>
-      </c>
     </row>
     <row r="642">
       <c r="A642">
@@ -20268,12 +16418,6 @@
       <c r="G642">
         <v>8.6</v>
       </c>
-      <c r="H642">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="I642">
-        <v>0</v>
-      </c>
     </row>
     <row r="643">
       <c r="A643">
@@ -20299,12 +16443,6 @@
       <c r="G643">
         <v>0</v>
       </c>
-      <c r="H643">
-        <v>77.3</v>
-      </c>
-      <c r="I643">
-        <v>0</v>
-      </c>
     </row>
     <row r="644">
       <c r="A644">
@@ -20330,12 +16468,6 @@
       <c r="G644">
         <v>3.2</v>
       </c>
-      <c r="H644">
-        <v>59.8</v>
-      </c>
-      <c r="I644">
-        <v>0</v>
-      </c>
     </row>
     <row r="645">
       <c r="A645">
@@ -20361,12 +16493,6 @@
       <c r="G645">
         <v>1.5</v>
       </c>
-      <c r="H645">
-        <v>76.59999999999999</v>
-      </c>
-      <c r="I645">
-        <v>0</v>
-      </c>
     </row>
     <row r="646">
       <c r="A646">
@@ -20392,12 +16518,6 @@
       <c r="G646">
         <v>0.5</v>
       </c>
-      <c r="H646">
-        <v>83.09999999999999</v>
-      </c>
-      <c r="I646">
-        <v>0</v>
-      </c>
     </row>
     <row r="647">
       <c r="A647">
@@ -20423,12 +16543,6 @@
       <c r="G647">
         <v>3.6</v>
       </c>
-      <c r="H647">
-        <v>85.3</v>
-      </c>
-      <c r="I647">
-        <v>0</v>
-      </c>
     </row>
     <row r="648">
       <c r="A648">
@@ -20454,12 +16568,6 @@
       <c r="G648">
         <v>0</v>
       </c>
-      <c r="H648">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="I648">
-        <v>0</v>
-      </c>
     </row>
     <row r="649">
       <c r="A649">
@@ -20485,12 +16593,6 @@
       <c r="G649">
         <v>0</v>
       </c>
-      <c r="H649">
-        <v>78.3</v>
-      </c>
-      <c r="I649">
-        <v>0</v>
-      </c>
     </row>
     <row r="650">
       <c r="A650">
@@ -20516,12 +16618,6 @@
       <c r="G650">
         <v>0</v>
       </c>
-      <c r="H650">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="I650">
-        <v>0</v>
-      </c>
     </row>
     <row r="651">
       <c r="A651">
@@ -20547,12 +16643,6 @@
       <c r="G651">
         <v>0</v>
       </c>
-      <c r="H651">
-        <v>70.3</v>
-      </c>
-      <c r="I651">
-        <v>0</v>
-      </c>
     </row>
     <row r="652">
       <c r="A652">
@@ -20578,12 +16668,6 @@
       <c r="G652">
         <v>0</v>
       </c>
-      <c r="H652">
-        <v>70.09999999999999</v>
-      </c>
-      <c r="I652">
-        <v>0</v>
-      </c>
     </row>
     <row r="653">
       <c r="A653">
@@ -20609,12 +16693,6 @@
       <c r="G653">
         <v>0</v>
       </c>
-      <c r="H653">
-        <v>76.40000000000001</v>
-      </c>
-      <c r="I653">
-        <v>0</v>
-      </c>
     </row>
     <row r="654">
       <c r="A654">
@@ -20640,12 +16718,6 @@
       <c r="G654">
         <v>0</v>
       </c>
-      <c r="H654">
-        <v>76.40000000000001</v>
-      </c>
-      <c r="I654">
-        <v>0</v>
-      </c>
     </row>
     <row r="655">
       <c r="A655">
@@ -20671,12 +16743,6 @@
       <c r="G655">
         <v>0</v>
       </c>
-      <c r="H655">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="I655">
-        <v>0</v>
-      </c>
     </row>
     <row r="656">
       <c r="A656">
@@ -20702,12 +16768,6 @@
       <c r="G656">
         <v>0</v>
       </c>
-      <c r="H656">
-        <v>61.8</v>
-      </c>
-      <c r="I656">
-        <v>0</v>
-      </c>
     </row>
     <row r="657">
       <c r="A657">
@@ -20733,12 +16793,6 @@
       <c r="G657">
         <v>0</v>
       </c>
-      <c r="H657">
-        <v>66.3</v>
-      </c>
-      <c r="I657">
-        <v>0</v>
-      </c>
     </row>
     <row r="658">
       <c r="A658">
@@ -20764,12 +16818,6 @@
       <c r="G658">
         <v>0</v>
       </c>
-      <c r="H658">
-        <v>76</v>
-      </c>
-      <c r="I658">
-        <v>0</v>
-      </c>
     </row>
     <row r="659">
       <c r="A659">
@@ -20795,12 +16843,6 @@
       <c r="G659">
         <v>0</v>
       </c>
-      <c r="H659">
-        <v>76</v>
-      </c>
-      <c r="I659">
-        <v>0</v>
-      </c>
     </row>
     <row r="660">
       <c r="A660">
@@ -20826,12 +16868,6 @@
       <c r="G660">
         <v>0.5</v>
       </c>
-      <c r="H660">
-        <v>80.5</v>
-      </c>
-      <c r="I660">
-        <v>0</v>
-      </c>
     </row>
     <row r="661">
       <c r="A661">
@@ -20857,12 +16893,6 @@
       <c r="G661">
         <v>23.5</v>
       </c>
-      <c r="H661">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="I661">
-        <v>0</v>
-      </c>
     </row>
     <row r="662">
       <c r="A662">
@@ -20888,12 +16918,6 @@
       <c r="G662">
         <v>32.2</v>
       </c>
-      <c r="H662">
-        <v>92.40000000000001</v>
-      </c>
-      <c r="I662">
-        <v>0</v>
-      </c>
     </row>
     <row r="663">
       <c r="A663">
@@ -20919,12 +16943,6 @@
       <c r="G663">
         <v>0</v>
       </c>
-      <c r="H663">
-        <v>93</v>
-      </c>
-      <c r="I663">
-        <v>0</v>
-      </c>
     </row>
     <row r="664">
       <c r="A664">
@@ -20950,12 +16968,6 @@
       <c r="G664">
         <v>0.1</v>
       </c>
-      <c r="H664">
-        <v>83.8</v>
-      </c>
-      <c r="I664">
-        <v>0</v>
-      </c>
     </row>
     <row r="665">
       <c r="A665">
@@ -20981,12 +16993,6 @@
       <c r="G665">
         <v>0.1</v>
       </c>
-      <c r="H665">
-        <v>76.3</v>
-      </c>
-      <c r="I665">
-        <v>0</v>
-      </c>
     </row>
     <row r="666">
       <c r="A666">
@@ -21012,12 +17018,6 @@
       <c r="G666">
         <v>21</v>
       </c>
-      <c r="H666">
-        <v>83.8</v>
-      </c>
-      <c r="I666">
-        <v>0</v>
-      </c>
     </row>
     <row r="667">
       <c r="A667">
@@ -21043,12 +17043,6 @@
       <c r="G667">
         <v>1.6</v>
       </c>
-      <c r="H667">
-        <v>85.09999999999999</v>
-      </c>
-      <c r="I667">
-        <v>0</v>
-      </c>
     </row>
     <row r="668">
       <c r="A668">
@@ -21074,12 +17068,6 @@
       <c r="G668">
         <v>31.3</v>
       </c>
-      <c r="H668">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="I668">
-        <v>0</v>
-      </c>
     </row>
     <row r="669">
       <c r="A669">
@@ -21105,12 +17093,6 @@
       <c r="G669">
         <v>4.7</v>
       </c>
-      <c r="H669">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="I669">
-        <v>0</v>
-      </c>
     </row>
     <row r="670">
       <c r="A670">
@@ -21136,12 +17118,6 @@
       <c r="G670">
         <v>0.4</v>
       </c>
-      <c r="H670">
-        <v>76</v>
-      </c>
-      <c r="I670">
-        <v>0</v>
-      </c>
     </row>
     <row r="671">
       <c r="A671">
@@ -21167,12 +17143,6 @@
       <c r="G671">
         <v>0</v>
       </c>
-      <c r="H671">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="I671">
-        <v>0</v>
-      </c>
     </row>
     <row r="672">
       <c r="A672">
@@ -21198,12 +17168,6 @@
       <c r="G672">
         <v>4.7</v>
       </c>
-      <c r="H672">
-        <v>82.5</v>
-      </c>
-      <c r="I672">
-        <v>0</v>
-      </c>
     </row>
     <row r="673">
       <c r="A673">
@@ -21229,12 +17193,6 @@
       <c r="G673">
         <v>0.5</v>
       </c>
-      <c r="H673">
-        <v>89.5</v>
-      </c>
-      <c r="I673">
-        <v>0</v>
-      </c>
     </row>
     <row r="674">
       <c r="A674">
@@ -21260,12 +17218,6 @@
       <c r="G674">
         <v>0</v>
       </c>
-      <c r="H674">
-        <v>85.59999999999999</v>
-      </c>
-      <c r="I674">
-        <v>0</v>
-      </c>
     </row>
     <row r="675">
       <c r="A675">
@@ -21291,12 +17243,6 @@
       <c r="G675">
         <v>0</v>
       </c>
-      <c r="H675">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="I675">
-        <v>0</v>
-      </c>
     </row>
     <row r="676">
       <c r="A676">
@@ -21322,12 +17268,6 @@
       <c r="G676">
         <v>0</v>
       </c>
-      <c r="H676">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="I676">
-        <v>0</v>
-      </c>
     </row>
     <row r="677">
       <c r="A677">
@@ -21353,12 +17293,6 @@
       <c r="G677">
         <v>0</v>
       </c>
-      <c r="H677">
-        <v>83.3</v>
-      </c>
-      <c r="I677">
-        <v>0</v>
-      </c>
     </row>
     <row r="678">
       <c r="A678">
@@ -21384,12 +17318,6 @@
       <c r="G678">
         <v>0</v>
       </c>
-      <c r="H678">
-        <v>81.8</v>
-      </c>
-      <c r="I678">
-        <v>0</v>
-      </c>
     </row>
     <row r="679">
       <c r="A679">
@@ -21415,12 +17343,6 @@
       <c r="G679">
         <v>0.4</v>
       </c>
-      <c r="H679">
-        <v>89</v>
-      </c>
-      <c r="I679">
-        <v>0</v>
-      </c>
     </row>
     <row r="680">
       <c r="A680">
@@ -21446,12 +17368,6 @@
       <c r="G680">
         <v>0</v>
       </c>
-      <c r="H680">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="I680">
-        <v>0</v>
-      </c>
     </row>
     <row r="681">
       <c r="A681">
@@ -21477,12 +17393,6 @@
       <c r="G681">
         <v>0.3</v>
       </c>
-      <c r="H681">
-        <v>70.09999999999999</v>
-      </c>
-      <c r="I681">
-        <v>0</v>
-      </c>
     </row>
     <row r="682">
       <c r="A682">
@@ -21508,12 +17418,6 @@
       <c r="G682">
         <v>0.7</v>
       </c>
-      <c r="H682">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="I682">
-        <v>0</v>
-      </c>
     </row>
     <row r="683">
       <c r="A683">
@@ -21539,12 +17443,6 @@
       <c r="G683">
         <v>20.2</v>
       </c>
-      <c r="H683">
-        <v>93</v>
-      </c>
-      <c r="I683">
-        <v>0</v>
-      </c>
     </row>
     <row r="684">
       <c r="A684">
@@ -21570,12 +17468,6 @@
       <c r="G684">
         <v>0</v>
       </c>
-      <c r="H684">
-        <v>85.09999999999999</v>
-      </c>
-      <c r="I684">
-        <v>0</v>
-      </c>
     </row>
     <row r="685">
       <c r="A685">
@@ -21601,12 +17493,6 @@
       <c r="G685">
         <v>0</v>
       </c>
-      <c r="H685">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="I685">
-        <v>0</v>
-      </c>
     </row>
     <row r="686">
       <c r="A686">
@@ -21632,12 +17518,6 @@
       <c r="G686">
         <v>0</v>
       </c>
-      <c r="H686">
-        <v>87.8</v>
-      </c>
-      <c r="I686">
-        <v>0</v>
-      </c>
     </row>
     <row r="687">
       <c r="A687">
@@ -21663,12 +17543,6 @@
       <c r="G687">
         <v>7.7</v>
       </c>
-      <c r="H687">
-        <v>95.8</v>
-      </c>
-      <c r="I687">
-        <v>0</v>
-      </c>
     </row>
     <row r="688">
       <c r="A688">
@@ -21694,12 +17568,6 @@
       <c r="G688">
         <v>1.3</v>
       </c>
-      <c r="H688">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="I688">
-        <v>0</v>
-      </c>
     </row>
     <row r="689">
       <c r="A689">
@@ -21725,12 +17593,6 @@
       <c r="G689">
         <v>3.2</v>
       </c>
-      <c r="H689">
-        <v>80.3</v>
-      </c>
-      <c r="I689">
-        <v>0</v>
-      </c>
     </row>
     <row r="690">
       <c r="A690">
@@ -21756,12 +17618,6 @@
       <c r="G690">
         <v>0.7</v>
       </c>
-      <c r="H690">
-        <v>79</v>
-      </c>
-      <c r="I690">
-        <v>0</v>
-      </c>
     </row>
     <row r="691">
       <c r="A691">
@@ -21787,12 +17643,6 @@
       <c r="G691">
         <v>1.3</v>
       </c>
-      <c r="H691">
-        <v>87.8</v>
-      </c>
-      <c r="I691">
-        <v>0</v>
-      </c>
     </row>
     <row r="692">
       <c r="A692">
@@ -21818,12 +17668,6 @@
       <c r="G692">
         <v>0.1</v>
       </c>
-      <c r="H692">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="I692">
-        <v>0</v>
-      </c>
     </row>
     <row r="693">
       <c r="A693">
@@ -21849,12 +17693,6 @@
       <c r="G693">
         <v>0</v>
       </c>
-      <c r="H693">
-        <v>88</v>
-      </c>
-      <c r="I693">
-        <v>0</v>
-      </c>
     </row>
     <row r="694">
       <c r="A694">
@@ -21880,12 +17718,6 @@
       <c r="G694">
         <v>0</v>
       </c>
-      <c r="H694">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="I694">
-        <v>0</v>
-      </c>
     </row>
     <row r="695">
       <c r="A695">
@@ -21911,12 +17743,6 @@
       <c r="G695">
         <v>8.300000000000001</v>
       </c>
-      <c r="H695">
-        <v>71.8</v>
-      </c>
-      <c r="I695">
-        <v>0</v>
-      </c>
     </row>
     <row r="696">
       <c r="A696">
@@ -21942,12 +17768,6 @@
       <c r="G696">
         <v>7.4</v>
       </c>
-      <c r="H696">
-        <v>89.5</v>
-      </c>
-      <c r="I696">
-        <v>0</v>
-      </c>
     </row>
     <row r="697">
       <c r="A697">
@@ -21973,12 +17793,6 @@
       <c r="G697">
         <v>0</v>
       </c>
-      <c r="H697">
-        <v>83.5</v>
-      </c>
-      <c r="I697">
-        <v>0</v>
-      </c>
     </row>
     <row r="698">
       <c r="A698">
@@ -22004,12 +17818,6 @@
       <c r="G698">
         <v>1.1</v>
       </c>
-      <c r="H698">
-        <v>87.5</v>
-      </c>
-      <c r="I698">
-        <v>0</v>
-      </c>
     </row>
     <row r="699">
       <c r="A699">
@@ -22035,12 +17843,6 @@
       <c r="G699">
         <v>5.8</v>
       </c>
-      <c r="H699">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="I699">
-        <v>0</v>
-      </c>
     </row>
     <row r="700">
       <c r="A700">
@@ -22066,12 +17868,6 @@
       <c r="G700">
         <v>9.699999999999999</v>
       </c>
-      <c r="H700">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="I700">
-        <v>0</v>
-      </c>
     </row>
     <row r="701">
       <c r="A701">
@@ -22097,12 +17893,6 @@
       <c r="G701">
         <v>0</v>
       </c>
-      <c r="H701">
-        <v>79.3</v>
-      </c>
-      <c r="I701">
-        <v>0</v>
-      </c>
     </row>
     <row r="702">
       <c r="A702">
@@ -22128,12 +17918,6 @@
       <c r="G702">
         <v>1</v>
       </c>
-      <c r="H702">
-        <v>82.5</v>
-      </c>
-      <c r="I702">
-        <v>0</v>
-      </c>
     </row>
     <row r="703">
       <c r="A703">
@@ -22159,12 +17943,6 @@
       <c r="G703">
         <v>8.6</v>
       </c>
-      <c r="H703">
-        <v>90.59999999999999</v>
-      </c>
-      <c r="I703">
-        <v>0</v>
-      </c>
     </row>
     <row r="704">
       <c r="A704">
@@ -22190,12 +17968,6 @@
       <c r="G704">
         <v>1.4</v>
       </c>
-      <c r="H704">
-        <v>84.09999999999999</v>
-      </c>
-      <c r="I704">
-        <v>0</v>
-      </c>
     </row>
     <row r="705">
       <c r="A705">
@@ -22221,12 +17993,6 @@
       <c r="G705">
         <v>2.9</v>
       </c>
-      <c r="H705">
-        <v>81</v>
-      </c>
-      <c r="I705">
-        <v>0</v>
-      </c>
     </row>
     <row r="706">
       <c r="A706">
@@ -22252,12 +18018,6 @@
       <c r="G706">
         <v>1.5</v>
       </c>
-      <c r="H706">
-        <v>86</v>
-      </c>
-      <c r="I706">
-        <v>0</v>
-      </c>
     </row>
     <row r="707">
       <c r="A707">
@@ -22283,12 +18043,6 @@
       <c r="G707">
         <v>0</v>
       </c>
-      <c r="H707">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="I707">
-        <v>0</v>
-      </c>
     </row>
     <row r="708">
       <c r="A708">
@@ -22314,12 +18068,6 @@
       <c r="G708">
         <v>3.8</v>
       </c>
-      <c r="H708">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="I708">
-        <v>0</v>
-      </c>
     </row>
     <row r="709">
       <c r="A709">
@@ -22345,12 +18093,6 @@
       <c r="G709">
         <v>4.7</v>
       </c>
-      <c r="H709">
-        <v>87.3</v>
-      </c>
-      <c r="I709">
-        <v>0</v>
-      </c>
     </row>
     <row r="710">
       <c r="A710">
@@ -22376,12 +18118,6 @@
       <c r="G710">
         <v>1.1</v>
       </c>
-      <c r="H710">
-        <v>68.3</v>
-      </c>
-      <c r="I710">
-        <v>0</v>
-      </c>
     </row>
     <row r="711">
       <c r="A711">
@@ -22407,12 +18143,6 @@
       <c r="G711">
         <v>0</v>
       </c>
-      <c r="H711">
-        <v>62.6</v>
-      </c>
-      <c r="I711">
-        <v>0</v>
-      </c>
     </row>
     <row r="712">
       <c r="A712">
@@ -22438,12 +18168,6 @@
       <c r="G712">
         <v>0.6</v>
       </c>
-      <c r="H712">
-        <v>69</v>
-      </c>
-      <c r="I712">
-        <v>0</v>
-      </c>
     </row>
     <row r="713">
       <c r="A713">
@@ -22469,12 +18193,6 @@
       <c r="G713">
         <v>0</v>
       </c>
-      <c r="H713">
-        <v>79.59999999999999</v>
-      </c>
-      <c r="I713">
-        <v>0</v>
-      </c>
     </row>
     <row r="714">
       <c r="A714">
@@ -22500,12 +18218,6 @@
       <c r="G714">
         <v>0</v>
       </c>
-      <c r="H714">
-        <v>63.3</v>
-      </c>
-      <c r="I714">
-        <v>0</v>
-      </c>
     </row>
     <row r="715">
       <c r="A715">
@@ -22531,12 +18243,6 @@
       <c r="G715">
         <v>2.7</v>
       </c>
-      <c r="H715">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="I715">
-        <v>0</v>
-      </c>
     </row>
     <row r="716">
       <c r="A716">
@@ -22562,12 +18268,6 @@
       <c r="G716">
         <v>0.2</v>
       </c>
-      <c r="H716">
-        <v>78.8</v>
-      </c>
-      <c r="I716">
-        <v>0</v>
-      </c>
     </row>
     <row r="717">
       <c r="A717">
@@ -22593,12 +18293,6 @@
       <c r="G717">
         <v>0.1</v>
       </c>
-      <c r="H717">
-        <v>74.5</v>
-      </c>
-      <c r="I717">
-        <v>0</v>
-      </c>
     </row>
     <row r="718">
       <c r="A718">
@@ -22624,12 +18318,6 @@
       <c r="G718">
         <v>0</v>
       </c>
-      <c r="H718">
-        <v>73</v>
-      </c>
-      <c r="I718">
-        <v>0</v>
-      </c>
     </row>
     <row r="719">
       <c r="A719">
@@ -22655,12 +18343,6 @@
       <c r="G719">
         <v>0</v>
       </c>
-      <c r="H719">
-        <v>74</v>
-      </c>
-      <c r="I719">
-        <v>0</v>
-      </c>
     </row>
     <row r="720">
       <c r="A720">
@@ -22686,12 +18368,6 @@
       <c r="G720">
         <v>4.7</v>
       </c>
-      <c r="H720">
-        <v>76.59999999999999</v>
-      </c>
-      <c r="I720">
-        <v>0</v>
-      </c>
     </row>
     <row r="721">
       <c r="A721">
@@ -22717,12 +18393,6 @@
       <c r="G721">
         <v>0.7</v>
       </c>
-      <c r="H721">
-        <v>84.5</v>
-      </c>
-      <c r="I721">
-        <v>0</v>
-      </c>
     </row>
     <row r="722">
       <c r="A722">
@@ -22748,12 +18418,6 @@
       <c r="G722">
         <v>2.6</v>
       </c>
-      <c r="H722">
-        <v>84</v>
-      </c>
-      <c r="I722">
-        <v>0</v>
-      </c>
     </row>
     <row r="723">
       <c r="A723">
@@ -22779,12 +18443,6 @@
       <c r="G723">
         <v>3.4</v>
       </c>
-      <c r="H723">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="I723">
-        <v>0</v>
-      </c>
     </row>
     <row r="724">
       <c r="A724">
@@ -22810,12 +18468,6 @@
       <c r="G724">
         <v>0.6</v>
       </c>
-      <c r="H724">
-        <v>87.5</v>
-      </c>
-      <c r="I724">
-        <v>0</v>
-      </c>
     </row>
     <row r="725">
       <c r="A725">
@@ -22841,12 +18493,6 @@
       <c r="G725">
         <v>0.1</v>
       </c>
-      <c r="H725">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="I725">
-        <v>0</v>
-      </c>
     </row>
     <row r="726">
       <c r="A726">
@@ -22872,12 +18518,6 @@
       <c r="G726">
         <v>0</v>
       </c>
-      <c r="H726">
-        <v>85.8</v>
-      </c>
-      <c r="I726">
-        <v>0</v>
-      </c>
     </row>
     <row r="727">
       <c r="A727">
@@ -22903,12 +18543,6 @@
       <c r="G727">
         <v>0</v>
       </c>
-      <c r="H727">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="I727">
-        <v>0</v>
-      </c>
     </row>
     <row r="728">
       <c r="A728">
@@ -22934,12 +18568,6 @@
       <c r="G728">
         <v>14.5</v>
       </c>
-      <c r="H728">
-        <v>68.5</v>
-      </c>
-      <c r="I728">
-        <v>0</v>
-      </c>
     </row>
     <row r="729">
       <c r="A729">
@@ -22965,12 +18593,6 @@
       <c r="G729">
         <v>8.199999999999999</v>
       </c>
-      <c r="H729">
-        <v>89.5</v>
-      </c>
-      <c r="I729">
-        <v>0</v>
-      </c>
     </row>
     <row r="730">
       <c r="A730">
@@ -22996,12 +18618,6 @@
       <c r="G730">
         <v>0</v>
       </c>
-      <c r="H730">
-        <v>85.8</v>
-      </c>
-      <c r="I730">
-        <v>0</v>
-      </c>
     </row>
     <row r="731">
       <c r="A731">
@@ -23026,12 +18642,6 @@
       </c>
       <c r="G731">
         <v>0.6</v>
-      </c>
-      <c r="H731">
-        <v>84.3</v>
-      </c>
-      <c r="I731">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
